--- a/example/Sample_Bar_template_v2023_1.xlsx
+++ b/example/Sample_Bar_template_v2023_1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brist\Documents\GitHub\rsoxs_scans\example\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://nistgov-my.sharepoint.com/personal/bbp_nist_gov/Documents/BP_NISTSoftware/BPWINPC01_Git/rsoxs_scans/example/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90E36585-B06A-48A1-B455-5D04BF8C010C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="24" documentId="13_ncr:1_{90E36585-B06A-48A1-B455-5D04BF8C010C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9013265A-467F-4066-80F8-AFEDE03D53F0}"/>
   <bookViews>
-    <workbookView xWindow="36110" yWindow="-5130" windowWidth="30950" windowHeight="16050" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-27990" yWindow="-120" windowWidth="28110" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="5" r:id="rId1"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="628" uniqueCount="240">
   <si>
     <t>Do not change the format of the Acquisitions or Samples tab.Other tabs can be added and edited as needed.</t>
   </si>
@@ -796,6 +796,15 @@
   <si>
     <t>Information about possible acquisitions and arguments are given in this template and on the wiki</t>
   </si>
+  <si>
+    <t>WAXSNEXAFS</t>
+  </si>
+  <si>
+    <t>WAXS_liquid</t>
+  </si>
+  <si>
+    <t>SAXS_liquid</t>
+  </si>
 </sst>
 </file>
 
@@ -865,7 +874,7 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -984,12 +993,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="16" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="8" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -999,26 +1002,18 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="9">
     <dxf>
       <fill>
         <patternFill>
@@ -1030,13 +1025,6 @@
       <fill>
         <patternFill>
           <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1436,7 +1424,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:A12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
@@ -38731,16 +38719,16 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="C8:C572">
-    <cfRule type="duplicateValues" dxfId="11" priority="5" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="5" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8:D193">
-    <cfRule type="duplicateValues" dxfId="10" priority="4" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="4" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C6:C7">
-    <cfRule type="duplicateValues" dxfId="9" priority="2" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="2" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6:D7">
-    <cfRule type="duplicateValues" dxfId="8" priority="1" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="1" stopIfTrue="1"/>
   </conditionalFormatting>
   <dataValidations count="16">
     <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O573:O1662 M233:N1662 C8:E1662 C6:E7" xr:uid="{00000000-0002-0000-0100-000001000000}">
@@ -38816,8 +38804,8 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:V688"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="V4" sqref="V4"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -38846,75 +38834,75 @@
     <col min="22" max="22" width="23.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="37" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="35" t="s">
+    <row r="1" spans="1:22" s="35" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="33" t="s">
         <v>138</v>
       </c>
-      <c r="B1" s="36" t="s">
+      <c r="B1" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="36" t="s">
+      <c r="C1" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="D1" s="36" t="s">
+      <c r="D1" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="E1" s="36" t="s">
+      <c r="E1" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="F1" s="36" t="s">
+      <c r="F1" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="G1" s="36" t="s">
+      <c r="G1" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="H1" s="36" t="s">
+      <c r="H1" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="I1" s="36" t="s">
+      <c r="I1" s="34" t="s">
         <v>48</v>
       </c>
-      <c r="J1" s="36" t="s">
+      <c r="J1" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="K1" s="36" t="s">
+      <c r="K1" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="L1" s="36" t="s">
+      <c r="L1" s="34" t="s">
         <v>69</v>
       </c>
-      <c r="M1" s="36" t="s">
+      <c r="M1" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="N1" s="36" t="s">
+      <c r="N1" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="O1" s="36" t="s">
+      <c r="O1" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="P1" s="36" t="s">
+      <c r="P1" s="34" t="s">
         <v>68</v>
       </c>
-      <c r="Q1" s="36" t="s">
+      <c r="Q1" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="R1" s="36" t="s">
+      <c r="R1" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="S1" s="36" t="s">
+      <c r="S1" s="34" t="s">
         <v>140</v>
       </c>
-      <c r="T1" s="36" t="s">
+      <c r="T1" s="34" t="s">
         <v>220</v>
       </c>
-      <c r="U1" s="36" t="s">
+      <c r="U1" s="34" t="s">
         <v>221</v>
       </c>
-      <c r="V1" s="36" t="s">
+      <c r="V1" s="34" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="2" spans="1:22" s="17" customFormat="1" ht="114.75" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:22" s="17" customFormat="1" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A2" s="27" t="s">
         <v>98</v>
       </c>
@@ -40730,13 +40718,64 @@
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B67" s="3"/>
+      <c r="A67" s="26">
+        <v>62</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C67" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="D67" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="E67">
+        <v>62</v>
+      </c>
+      <c r="F67" s="10" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B68" s="3"/>
+      <c r="A68" s="26">
+        <v>63</v>
+      </c>
+      <c r="B68" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C68" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="D68" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="E68">
+        <v>63</v>
+      </c>
+      <c r="F68" s="10" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B69" s="3"/>
+      <c r="A69" s="26">
+        <v>64</v>
+      </c>
+      <c r="B69" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C69" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="D69" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="E69">
+        <v>64</v>
+      </c>
+      <c r="F69" s="10" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B70" s="3"/>
@@ -42597,27 +42636,27 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="J1:N1 J6:N1048576">
-    <cfRule type="expression" dxfId="7" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="4" priority="8" stopIfTrue="1">
       <formula>"rsoxs"=$D1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L1:M1 Q1 H1:I1 H6:I1048576 Q6:Q1048576 L6:M1048576">
-    <cfRule type="expression" dxfId="6" priority="6">
+    <cfRule type="expression" dxfId="3" priority="6">
       <formula>"nexafs"=$D1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N1 G1:K1 P1 P6:P1048576 G6:K1048576 N6:N1048576">
-    <cfRule type="expression" dxfId="5" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="2" priority="5" stopIfTrue="1">
       <formula>"spiral"=$D1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1 F6:F1048576">
-    <cfRule type="expression" dxfId="3" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
       <formula>OR($D1="rsoxs", $D1="nexafs")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C6:E1004">
-    <cfRule type="expression" dxfId="2" priority="1">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>NOT(ISBLANK($B6))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -42682,25 +42721,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="30.75" x14ac:dyDescent="0.4">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="36" t="s">
         <v>91</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="37" t="s">
         <v>92</v>
       </c>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
       <c r="F1" s="15"/>
       <c r="G1" s="14"/>
       <c r="H1" s="14"/>
     </row>
     <row r="2" spans="1:18" ht="30.75" x14ac:dyDescent="0.4">
-      <c r="A2" s="33"/>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
+      <c r="A2" s="36"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
       <c r="F2" s="15"/>
       <c r="G2" s="14"/>
       <c r="H2" s="14"/>
@@ -44069,7 +44108,7 @@
       </c>
       <c r="G49" s="16"/>
     </row>
-    <row r="50" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A50" s="22" t="s">
         <v>126</v>
       </c>

--- a/example/Sample_Bar_template_v2023_1.xlsx
+++ b/example/Sample_Bar_template_v2023_1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://nistgov-my.sharepoint.com/personal/bbp_nist_gov/Documents/BP_NISTSoftware/BPWINPC01_Git/rsoxs_scans/example/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bbp\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="24" documentId="13_ncr:1_{90E36585-B06A-48A1-B455-5D04BF8C010C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9013265A-467F-4066-80F8-AFEDE03D53F0}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93BE9207-22EC-44D7-9AD3-89C1FC3090A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-27990" yWindow="-120" windowWidth="28110" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="628" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="652" uniqueCount="241">
   <si>
     <t>Do not change the format of the Acquisitions or Samples tab.Other tabs can be added and edited as needed.</t>
   </si>
@@ -805,6 +805,9 @@
   <si>
     <t>SAXS_liquid</t>
   </si>
+  <si>
+    <t>groupA</t>
+  </si>
 </sst>
 </file>
 
@@ -1013,7 +1016,35 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="13">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -38719,16 +38750,16 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="C8:C572">
-    <cfRule type="duplicateValues" dxfId="8" priority="5" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="5" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8:D193">
-    <cfRule type="duplicateValues" dxfId="7" priority="4" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="4" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C6:C7">
-    <cfRule type="duplicateValues" dxfId="6" priority="2" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="2" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6:D7">
-    <cfRule type="duplicateValues" dxfId="5" priority="1" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="1" stopIfTrue="1"/>
   </conditionalFormatting>
   <dataValidations count="16">
     <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O573:O1662 M233:N1662 C8:E1662 C6:E7" xr:uid="{00000000-0002-0000-0100-000001000000}">
@@ -38804,8 +38835,8 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:V688"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D50" sqref="D50"/>
+    <sheetView tabSelected="1" topLeftCell="A60" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F81" sqref="F81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -39263,7 +39294,7 @@
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A6" s="26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>53</v>
@@ -39284,7 +39315,7 @@
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A7" s="26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>54</v>
@@ -39306,7 +39337,7 @@
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A8" s="26">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>53</v>
@@ -39333,7 +39364,7 @@
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A9" s="26">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>54</v>
@@ -39354,7 +39385,7 @@
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A10" s="26">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>53</v>
@@ -39375,7 +39406,7 @@
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A11" s="26">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>54</v>
@@ -39402,7 +39433,7 @@
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A12" s="26">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>53</v>
@@ -39426,7 +39457,7 @@
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A13" s="26">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>54</v>
@@ -39453,7 +39484,7 @@
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A14" s="26">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>53</v>
@@ -39480,7 +39511,7 @@
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A15" s="26">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>54</v>
@@ -39501,7 +39532,7 @@
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A16" s="26">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>53</v>
@@ -39528,7 +39559,7 @@
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A17" s="26">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>54</v>
@@ -39555,7 +39586,7 @@
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A18" s="26">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>53</v>
@@ -39582,7 +39613,7 @@
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A19" s="26">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>54</v>
@@ -39609,7 +39640,7 @@
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A20" s="26">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>53</v>
@@ -39636,7 +39667,7 @@
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A21" s="26">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>54</v>
@@ -39660,7 +39691,7 @@
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A22" s="26">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>53</v>
@@ -39689,7 +39720,7 @@
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A23" s="26">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>54</v>
@@ -39716,7 +39747,7 @@
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A24" s="26">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>53</v>
@@ -39737,7 +39768,7 @@
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A25" s="26">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>54</v>
@@ -39761,7 +39792,7 @@
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A26" s="26">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>53</v>
@@ -39785,7 +39816,7 @@
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A27" s="26">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>54</v>
@@ -39809,7 +39840,7 @@
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A28" s="26">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>53</v>
@@ -39833,7 +39864,7 @@
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A29" s="26">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>54</v>
@@ -39857,7 +39888,7 @@
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A30" s="26">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>53</v>
@@ -39881,7 +39912,7 @@
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A31" s="26">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>54</v>
@@ -39905,7 +39936,7 @@
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A32" s="26">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>53</v>
@@ -39929,7 +39960,7 @@
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A33" s="26">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>54</v>
@@ -39950,7 +39981,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A34" s="26">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>53</v>
@@ -39971,7 +40002,7 @@
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A35" s="26">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>54</v>
@@ -39992,7 +40023,7 @@
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A36" s="26">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>53</v>
@@ -40016,7 +40047,7 @@
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A37" s="26">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>54</v>
@@ -40040,7 +40071,7 @@
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A38" s="26">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>53</v>
@@ -40064,7 +40095,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A39" s="26">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>54</v>
@@ -40091,7 +40122,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A40" s="26">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>53</v>
@@ -40118,7 +40149,7 @@
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A41" s="26">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>54</v>
@@ -40145,7 +40176,7 @@
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A42" s="26">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B42" s="3" t="s">
         <v>53</v>
@@ -40172,7 +40203,7 @@
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A43" s="26">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B43" s="3" t="s">
         <v>54</v>
@@ -40199,7 +40230,7 @@
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A44" s="26">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>53</v>
@@ -40226,7 +40257,7 @@
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A45" s="26">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B45" s="3" t="s">
         <v>54</v>
@@ -40256,7 +40287,7 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A46" s="26">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B46" s="3" t="s">
         <v>53</v>
@@ -40280,7 +40311,7 @@
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A47" s="26">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B47" s="3" t="s">
         <v>54</v>
@@ -40306,7 +40337,7 @@
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A48" s="26">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B48" s="3" t="s">
         <v>53</v>
@@ -40329,7 +40360,7 @@
     </row>
     <row r="49" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A49" s="26">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B49" s="3" t="s">
         <v>54</v>
@@ -40349,7 +40380,7 @@
     </row>
     <row r="50" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A50" s="26">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>53</v>
@@ -40372,7 +40403,7 @@
     </row>
     <row r="51" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A51" s="26">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B51" s="3" t="s">
         <v>54</v>
@@ -40395,7 +40426,7 @@
     </row>
     <row r="52" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A52" s="26">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B52" s="3" t="s">
         <v>53</v>
@@ -40418,7 +40449,7 @@
     </row>
     <row r="53" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A53" s="26">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B53" s="3" t="s">
         <v>54</v>
@@ -40441,7 +40472,7 @@
     </row>
     <row r="54" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A54" s="26">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B54" s="3" t="s">
         <v>53</v>
@@ -40464,7 +40495,7 @@
     </row>
     <row r="55" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A55" s="26">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B55" s="3" t="s">
         <v>54</v>
@@ -40487,7 +40518,7 @@
     </row>
     <row r="56" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A56" s="26">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B56" s="3" t="s">
         <v>53</v>
@@ -40510,7 +40541,7 @@
     </row>
     <row r="57" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A57" s="26">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B57" s="3" t="s">
         <v>54</v>
@@ -40530,7 +40561,7 @@
     </row>
     <row r="58" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A58" s="26">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B58" s="3" t="s">
         <v>53</v>
@@ -40553,7 +40584,7 @@
     </row>
     <row r="59" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A59" s="26">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B59" s="3" t="s">
         <v>54</v>
@@ -40576,7 +40607,7 @@
     </row>
     <row r="60" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A60" s="26">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B60" s="3" t="s">
         <v>53</v>
@@ -40599,7 +40630,7 @@
     </row>
     <row r="61" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A61" s="26">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B61" s="3" t="s">
         <v>54</v>
@@ -40619,7 +40650,7 @@
     </row>
     <row r="62" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A62" s="26">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B62" s="3" t="s">
         <v>53</v>
@@ -40639,7 +40670,7 @@
     </row>
     <row r="63" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A63" s="26">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B63" s="3" t="s">
         <v>54</v>
@@ -40659,7 +40690,7 @@
     </row>
     <row r="64" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A64" s="26">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B64" s="3" t="s">
         <v>53</v>
@@ -40677,9 +40708,9 @@
         <v>65</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A65" s="26">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B65" s="3" t="s">
         <v>54</v>
@@ -40697,9 +40728,9 @@
         <v>65</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A66" s="26">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B66" s="3" t="s">
         <v>53</v>
@@ -40717,9 +40748,9 @@
         <v>65</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A67" s="26">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B67" s="3" t="s">
         <v>54</v>
@@ -40737,9 +40768,9 @@
         <v>71</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A68" s="26">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B68" s="10" t="s">
         <v>54</v>
@@ -40757,9 +40788,9 @@
         <v>71</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A69" s="26">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B69" s="10" t="s">
         <v>54</v>
@@ -40777,37 +40808,132 @@
         <v>71</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B70" s="3"/>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B71" s="3"/>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B72" s="3"/>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B73" s="3"/>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A70" s="26">
+        <v>64</v>
+      </c>
+      <c r="B70" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D70" t="s">
+        <v>62</v>
+      </c>
+      <c r="E70">
+        <v>65</v>
+      </c>
+      <c r="F70" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="G70" t="s">
+        <v>81</v>
+      </c>
+      <c r="T70" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="71" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A71" s="26">
+        <v>65</v>
+      </c>
+      <c r="B71" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C71" t="s">
+        <v>61</v>
+      </c>
+      <c r="D71" t="s">
+        <v>62</v>
+      </c>
+      <c r="E71">
+        <v>66</v>
+      </c>
+      <c r="F71" t="s">
+        <v>80</v>
+      </c>
+      <c r="G71" t="s">
+        <v>81</v>
+      </c>
+      <c r="T71" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="72" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A72" s="26">
+        <v>66</v>
+      </c>
+      <c r="B72" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C72" t="s">
+        <v>61</v>
+      </c>
+      <c r="D72" t="s">
+        <v>62</v>
+      </c>
+      <c r="E72">
+        <v>67</v>
+      </c>
+      <c r="F72" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="G72" t="s">
+        <v>82</v>
+      </c>
+      <c r="T72" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="73" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A73" s="26">
+        <v>67</v>
+      </c>
+      <c r="B73" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C73" t="s">
+        <v>60</v>
+      </c>
+      <c r="D73" t="s">
+        <v>62</v>
+      </c>
+      <c r="E73">
+        <v>68</v>
+      </c>
+      <c r="F73" t="s">
+        <v>80</v>
+      </c>
+      <c r="G73" t="s">
+        <v>81</v>
+      </c>
+      <c r="H73">
+        <v>5</v>
+      </c>
+      <c r="T73" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="74" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B74" s="3"/>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B75" s="3"/>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B76" s="3"/>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B77" s="3"/>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B78" s="3"/>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B79" s="3"/>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B80" s="3"/>
     </row>
     <row r="81" spans="2:2" x14ac:dyDescent="0.2">
@@ -42636,28 +42762,48 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="J1:N1 J6:N1048576">
-    <cfRule type="expression" dxfId="4" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="8" priority="12" stopIfTrue="1">
       <formula>"rsoxs"=$D1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L1:M1 Q1 H1:I1 H6:I1048576 Q6:Q1048576 L6:M1048576">
-    <cfRule type="expression" dxfId="3" priority="6">
+  <conditionalFormatting sqref="L1:M1 Q1 H1:I1 H6:I69 Q6:Q1048576 L6:M1048576 H74:I1048576">
+    <cfRule type="expression" dxfId="7" priority="10">
       <formula>"nexafs"=$D1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N1 G1:K1 P1 P6:P1048576 G6:K1048576 N6:N1048576">
-    <cfRule type="expression" dxfId="2" priority="5" stopIfTrue="1">
+  <conditionalFormatting sqref="N1 G1:K1 P1 P6:P1048576 G6:K69 N6:N1048576 G74:K1048576 J70:K73">
+    <cfRule type="expression" dxfId="6" priority="9" stopIfTrue="1">
       <formula>"spiral"=$D1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1 F6:F1048576">
-    <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
+  <conditionalFormatting sqref="F1 F6:F69 F74:F1048576">
+    <cfRule type="expression" dxfId="5" priority="6" stopIfTrue="1">
       <formula>OR($D1="rsoxs", $D1="nexafs")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C6:E1004">
+  <conditionalFormatting sqref="C6:E69 C74:E1004">
+    <cfRule type="expression" dxfId="4" priority="5">
+      <formula>NOT(ISBLANK($B6))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H70:I73">
+    <cfRule type="expression" dxfId="3" priority="4">
+      <formula>"nexafs"=$D70</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G70:I73">
+    <cfRule type="expression" dxfId="2" priority="3" stopIfTrue="1">
+      <formula>"spiral"=$D70</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F70:F73">
+    <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
+      <formula>OR($D70="rsoxs", $D70="nexafs")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C70:E73">
     <cfRule type="expression" dxfId="0" priority="1">
-      <formula>NOT(ISBLANK($B6))</formula>
+      <formula>NOT(ISBLANK($B70))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">

--- a/example/Sample_Bar_template_v2023_1.xlsx
+++ b/example/Sample_Bar_template_v2023_1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bbp\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93BE9207-22EC-44D7-9AD3-89C1FC3090A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBEA8132-9062-4C85-8E24-F13261828D83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-27990" yWindow="-120" windowWidth="28110" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="652" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="677" uniqueCount="249">
   <si>
     <t>Do not change the format of the Acquisitions or Samples tab.Other tabs can be added and edited as needed.</t>
   </si>
@@ -808,6 +808,30 @@
   <si>
     <t>groupA</t>
   </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>diodeRangeTest</t>
+  </si>
+  <si>
+    <t>test2</t>
+  </si>
+  <si>
+    <t>invalidParamTest</t>
+  </si>
+  <si>
+    <t>ab</t>
+  </si>
+  <si>
+    <t>cat</t>
+  </si>
+  <si>
+    <t>rat</t>
+  </si>
+  <si>
+    <t>mat</t>
+  </si>
 </sst>
 </file>
 
@@ -934,7 +958,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="16" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
@@ -979,9 +1003,6 @@
     <xf numFmtId="49" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1016,7 +1037,49 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="13">
+  <dxfs count="19">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1456,7 +1519,7 @@
   <dimension ref="A1:A12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1540,7 +1603,7 @@
       <pane xSplit="5" ySplit="3" topLeftCell="F4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="J25" sqref="J25"/>
+      <selection pane="bottomRight" activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1748,87 +1811,87 @@
       <c r="A3" s="23" t="s">
         <v>99</v>
       </c>
-      <c r="B3" s="25" t="str">
+      <c r="B3" s="24" t="str">
         <f>VLOOKUP(B1,SheetRulesAndMetaData!$B7:$F28,3,FALSE)</f>
         <v xml:space="preserve"> all bar cells should share this exact name</v>
       </c>
-      <c r="C3" s="25" t="str">
+      <c r="C3" s="24" t="str">
         <f>VLOOKUP(C1,SheetRulesAndMetaData!$B7:$F28,3,FALSE)</f>
         <v xml:space="preserve"> Must match any physical sample labels</v>
       </c>
-      <c r="D3" s="25" t="str">
+      <c r="D3" s="24" t="str">
         <f>VLOOKUP(D1,SheetRulesAndMetaData!$B7:$F28,3,FALSE)</f>
         <v>plain english is encouraged</v>
       </c>
-      <c r="E3" s="25" t="str">
+      <c r="E3" s="24" t="str">
         <f>VLOOKUP(E1,SheetRulesAndMetaData!$B7:$F28,3,FALSE)</f>
         <v>any characters allowed on a linux filesystem</v>
       </c>
-      <c r="F3" s="25" t="str">
+      <c r="F3" s="24" t="str">
         <f>VLOOKUP(F1,SheetRulesAndMetaData!$B7:$F28,3,FALSE)</f>
         <v>Be consistent across all beamtimes</v>
       </c>
-      <c r="G3" s="25" t="str">
+      <c r="G3" s="24" t="str">
         <f>VLOOKUP(G1,SheetRulesAndMetaData!$B7:$F28,3,FALSE)</f>
         <v>Only the 6 digit number</v>
       </c>
-      <c r="H3" s="25" t="str">
+      <c r="H3" s="24" t="str">
         <f>VLOOKUP(H1,SheetRulesAndMetaData!$B7:$F28,3,FALSE)</f>
         <v>be consistent see wiki for orientation help</v>
       </c>
-      <c r="I3" s="25" t="str">
+      <c r="I3" s="24" t="str">
         <f>VLOOKUP(I1,SheetRulesAndMetaData!$B7:$F28,3,FALSE)</f>
         <v>TRUE OR FALSE</v>
       </c>
-      <c r="J3" s="25" t="str">
+      <c r="J3" s="24" t="str">
         <f>VLOOKUP(J1,SheetRulesAndMetaData!$B7:$F28,3,FALSE)</f>
         <v>TRUE or FALSE</v>
       </c>
-      <c r="K3" s="25" t="str">
+      <c r="K3" s="24" t="str">
         <f>VLOOKUP(K1,SheetRulesAndMetaData!$B7:$F28,3,FALSE)</f>
         <v>(transmission) 0 degrees = normal incidence, while 20 = 20 degrees from normal incidence, -20 - 20 degrees in the other direction from normal incidence.</v>
       </c>
-      <c r="L3" s="25" t="str">
+      <c r="L3" s="24" t="str">
         <f>VLOOKUP(L1,SheetRulesAndMetaData!$B7:$F28,3,FALSE)</f>
         <v>Value in mm.</v>
       </c>
-      <c r="M3" s="25" t="str">
+      <c r="M3" s="24" t="str">
         <f>VLOOKUP(M1,SheetRulesAndMetaData!$B7:$F28,3,FALSE)</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="N3" s="25" t="str">
+      <c r="N3" s="24" t="str">
         <f>VLOOKUP(N1,SheetRulesAndMetaData!$B7:$F28,3,FALSE)</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="O3" s="25" t="str">
+      <c r="O3" s="24" t="str">
         <f>VLOOKUP(O1,SheetRulesAndMetaData!$B7:$F28,3,FALSE)</f>
         <v>number between 0 and 100</v>
       </c>
-      <c r="P3" s="25" t="str">
+      <c r="P3" s="24" t="str">
         <f>VLOOKUP(P1,SheetRulesAndMetaData!$B7:$F28,3,FALSE)</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="Q3" s="25" t="str">
+      <c r="Q3" s="24" t="str">
         <f>VLOOKUP(Q1,SheetRulesAndMetaData!$B7:$F28,3,FALSE)</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="R3" s="25" t="str">
+      <c r="R3" s="24" t="str">
         <f>VLOOKUP(R1,SheetRulesAndMetaData!$B7:$F28,3,FALSE)</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="S3" s="25" t="str">
+      <c r="S3" s="24" t="str">
         <f>VLOOKUP(S1,SheetRulesAndMetaData!$B7:$F28,3,FALSE)</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="T3" s="25" t="str">
+      <c r="T3" s="24" t="str">
         <f>VLOOKUP(T1,SheetRulesAndMetaData!$B7:$F28,3,FALSE)</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="U3" s="25" t="str">
+      <c r="U3" s="24" t="str">
         <f>VLOOKUP(U1,SheetRulesAndMetaData!$B7:$F28,3,FALSE)</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="V3" s="25" t="str">
+      <c r="V3" s="24" t="str">
         <f>VLOOKUP(V1,SheetRulesAndMetaData!$B7:$F28,3,FALSE)</f>
         <v xml:space="preserve"> </v>
       </c>
@@ -1837,88 +1900,88 @@
       <c r="A4" s="23" t="s">
         <v>100</v>
       </c>
-      <c r="B4" s="25" t="str">
+      <c r="B4" s="24" t="str">
         <f>VLOOKUP(B1,SheetRulesAndMetaData!$B7:$F28,4,FALSE)</f>
         <v>testbar</v>
       </c>
-      <c r="C4" s="25" t="str">
+      <c r="C4" s="24" t="str">
         <f>VLOOKUP(C1,SheetRulesAndMetaData!$B7:$F28,4,FALSE)</f>
         <v>EG01</v>
       </c>
-      <c r="D4" s="25" t="str">
+      <c r="D4" s="24" t="str">
         <f>VLOOKUP(D1,SheetRulesAndMetaData!$B7:$F28,4,FALSE)</f>
         <v>P3HT-AN-120C</v>
       </c>
-      <c r="E4" s="25" t="str">
+      <c r="E4" s="24" t="str">
         <f>VLOOKUP(E1,SheetRulesAndMetaData!$B7:$F28,4,FALSE)</f>
         <v>NEXAFS or RSoXS or OPVs</v>
       </c>
-      <c r="F4" s="25" t="str">
+      <c r="F4" s="24" t="str">
         <f>VLOOKUP(F1,SheetRulesAndMetaData!$B7:$F28,4,FALSE)</f>
         <v>NIST or NCSU or UPENN</v>
       </c>
-      <c r="G4" s="25">
+      <c r="G4" s="24">
         <f>VLOOKUP(G1,SheetRulesAndMetaData!$B7:$F28,4,FALSE)</f>
         <v>310704</v>
       </c>
-      <c r="H4" s="25" t="str">
+      <c r="H4" s="24" t="str">
         <f>VLOOKUP(H1,SheetRulesAndMetaData!$B7:$F28,4,FALSE)</f>
         <v>1A OR 12CD OR third sample from top, blue and shiny</v>
       </c>
-      <c r="I4" s="25" t="b">
+      <c r="I4" s="24" t="b">
         <f>VLOOKUP(I1,SheetRulesAndMetaData!$B7:$F28,4,FALSE)</f>
         <v>1</v>
       </c>
-      <c r="J4" s="25" t="b">
+      <c r="J4" s="24" t="b">
         <f>VLOOKUP(J1,SheetRulesAndMetaData!$B7:$F28,4,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="K4" s="25" t="str">
+      <c r="K4" s="24" t="str">
         <f>VLOOKUP(K1,SheetRulesAndMetaData!$B7:$F28,4,FALSE)</f>
         <v>(transmission) -180 (from back of sample)
 (grazing) 20 (20 degrees from grazing)</v>
       </c>
-      <c r="L4" s="25" t="str">
+      <c r="L4" s="24" t="str">
         <f>VLOOKUP(L1,SheetRulesAndMetaData!$B7:$F28,4,FALSE)</f>
         <v>0.25 mm</v>
       </c>
-      <c r="M4" s="25" t="str">
+      <c r="M4" s="24" t="str">
         <f>VLOOKUP(M1,SheetRulesAndMetaData!$B7:$F28,4,FALSE)</f>
         <v>something about the sample</v>
       </c>
-      <c r="N4" s="25" t="str">
+      <c r="N4" s="24" t="str">
         <f>VLOOKUP(N1,SheetRulesAndMetaData!$B7:$F28,4,FALSE)</f>
         <v>study of x effect on y</v>
       </c>
-      <c r="O4" s="25">
+      <c r="O4" s="24">
         <f>VLOOKUP(O1,SheetRulesAndMetaData!$B7:$F28,4,FALSE)</f>
         <v>1</v>
       </c>
-      <c r="P4" s="25">
+      <c r="P4" s="24">
         <f>VLOOKUP(P1,SheetRulesAndMetaData!$B7:$F28,4,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="Q4" s="25" t="str">
+      <c r="Q4" s="24" t="str">
         <f>VLOOKUP(Q1,SheetRulesAndMetaData!$B7:$F28,4,FALSE)</f>
         <v>opvs</v>
       </c>
-      <c r="R4" s="25" t="str">
+      <c r="R4" s="24" t="str">
         <f>VLOOKUP(R1,SheetRulesAndMetaData!$B7:$F28,4,FALSE)</f>
         <v>p3ht</v>
       </c>
-      <c r="S4" s="25" t="str">
+      <c r="S4" s="24" t="str">
         <f>VLOOKUP(S1,SheetRulesAndMetaData!$B7:$F28,4,FALSE)</f>
         <v>C1234H342O2F65</v>
       </c>
-      <c r="T4" s="25">
+      <c r="T4" s="24">
         <f>VLOOKUP(T1,SheetRulesAndMetaData!$B7:$F28,4,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="U4" s="25">
+      <c r="U4" s="24">
         <f>VLOOKUP(U1,SheetRulesAndMetaData!$B7:$F28,4,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="V4" s="25">
+      <c r="V4" s="24">
         <f>VLOOKUP(V1,SheetRulesAndMetaData!$B7:$F28,4,FALSE)</f>
         <v>0</v>
       </c>
@@ -1927,88 +1990,88 @@
       <c r="A5" s="23" t="s">
         <v>105</v>
       </c>
-      <c r="B5" s="25">
+      <c r="B5" s="24">
         <f>VLOOKUP(B1,SheetRulesAndMetaData!$B7:$F28,5,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="C5" s="25" t="str">
+      <c r="C5" s="24" t="str">
         <f>VLOOKUP(C1,SheetRulesAndMetaData!$B7:$F28,5,FALSE)</f>
         <v>this is what will be referenced in the acquisitions, so keep it simple</v>
       </c>
-      <c r="D5" s="25">
+      <c r="D5" s="24">
         <f>VLOOKUP(D1,SheetRulesAndMetaData!$B7:$F28,5,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="E5" s="25">
+      <c r="E5" s="24">
         <f>VLOOKUP(E1,SheetRulesAndMetaData!$B7:$F28,5,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="F5" s="25">
+      <c r="F5" s="24">
         <f>VLOOKUP(F1,SheetRulesAndMetaData!$B7:$F28,5,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="G5" s="25">
+      <c r="G5" s="24">
         <f>VLOOKUP(G1,SheetRulesAndMetaData!$B7:$F28,5,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="H5" s="25" t="str">
+      <c r="H5" s="24" t="str">
         <f>VLOOKUP(H1,SheetRulesAndMetaData!$B7:$F28,5,FALSE)</f>
         <v>program will present you with this when you are identifying the samples in an image</v>
       </c>
-      <c r="I5" s="25">
+      <c r="I5" s="24">
         <f>VLOOKUP(I1,SheetRulesAndMetaData!$B7:$F28,5,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="J5" s="25" t="str">
+      <c r="J5" s="24" t="str">
         <f>VLOOKUP(J1,SheetRulesAndMetaData!$B7:$F28,5,FALSE)</f>
         <v>If TRUE, any angle specified will be assumed to be a grazing angle (that is an angle with respect to the surface of the sample, where 90 degrees means normal to the sample). If FALSE, any angle specified will be assumed to be relative to the normal of the film (0 degrees is normal to the sample).</v>
       </c>
-      <c r="K5" s="25" t="str">
+      <c r="K5" s="24" t="str">
         <f>VLOOKUP(K1,SheetRulesAndMetaData!$B7:$F28,5,FALSE)</f>
         <v>For transmission measurements (grazing = FALSE), the angle is taken with respect to the FRONT/BACK sample normal vector. The default is 180 degrees. 
 For grazing measurements (grazing = True), specify the angle with respect to the front surface tangent.</v>
       </c>
-      <c r="L5" s="25" t="str">
+      <c r="L5" s="24" t="str">
         <f>VLOOKUP(L1,SheetRulesAndMetaData!$B7:$F28,5,FALSE)</f>
         <v>Si Wafers are usually 250 microns thick (0.25 mm)</v>
       </c>
-      <c r="M5" s="25">
+      <c r="M5" s="24">
         <f>VLOOKUP(M1,SheetRulesAndMetaData!$B7:$F28,5,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="N5" s="25">
+      <c r="N5" s="24">
         <f>VLOOKUP(N1,SheetRulesAndMetaData!$B7:$F28,5,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="O5" s="25" t="str">
+      <c r="O5" s="24" t="str">
         <f>VLOOKUP(O1,SheetRulesAndMetaData!$B7:$F28,5,FALSE)</f>
         <v>optional sorting method for queue creation</v>
       </c>
-      <c r="P5" s="25" t="str">
+      <c r="P5" s="24" t="str">
         <f>VLOOKUP(P1,SheetRulesAndMetaData!$B7:$F28,5,FALSE)</f>
         <v>this is a nice place to explain in english what scans you want to run, which can later be translated into the acquisition tab</v>
       </c>
-      <c r="Q5" s="25">
+      <c r="Q5" s="24">
         <f>VLOOKUP(Q1,SheetRulesAndMetaData!$B7:$F28,5,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="R5" s="25" t="str">
+      <c r="R5" s="24" t="str">
         <f>VLOOKUP(R1,SheetRulesAndMetaData!$B7:$F28,5,FALSE)</f>
         <v>useful for seaching for similar samples taken previously</v>
       </c>
-      <c r="S5" s="25" t="str">
+      <c r="S5" s="24" t="str">
         <f>VLOOKUP(S1,SheetRulesAndMetaData!$B7:$F28,5,FALSE)</f>
         <v>can be imported directly in QANT for Kramers Kronig</v>
       </c>
-      <c r="T5" s="25">
+      <c r="T5" s="24">
         <f>VLOOKUP(T1,SheetRulesAndMetaData!$B7:$F28,5,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="U5" s="25" t="str">
+      <c r="U5" s="24" t="str">
         <f>VLOOKUP(U1,SheetRulesAndMetaData!$B7:$F28,5,FALSE)</f>
         <v>can be imported directly in QANT for Kramers Kronig</v>
       </c>
-      <c r="V5" s="25">
+      <c r="V5" s="24">
         <f>VLOOKUP(V1,SheetRulesAndMetaData!$B7:$F28,5,FALSE)</f>
         <v>0</v>
       </c>
@@ -2017,7 +2080,7 @@
       <c r="A6" s="10">
         <v>1</v>
       </c>
-      <c r="B6" s="29" t="s">
+      <c r="B6" s="28" t="s">
         <v>51</v>
       </c>
       <c r="C6" s="1" t="s">
@@ -2032,22 +2095,22 @@
       <c r="F6" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="G6" s="30">
+      <c r="G6" s="29">
         <v>310704</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="I6" s="30" t="b">
+      <c r="I6" s="29" t="b">
         <v>1</v>
       </c>
-      <c r="J6" s="30" t="b">
+      <c r="J6" s="29" t="b">
         <v>0</v>
       </c>
-      <c r="K6" s="30">
+      <c r="K6" s="29">
         <v>180</v>
       </c>
-      <c r="L6" s="30">
+      <c r="L6" s="29">
         <v>0.25</v>
       </c>
       <c r="M6" s="1" t="s">
@@ -2071,22 +2134,22 @@
       <c r="S6" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="T6" s="30">
+      <c r="T6" s="29">
         <v>125</v>
       </c>
-      <c r="U6" s="31">
+      <c r="U6" s="30">
         <v>1.2</v>
       </c>
-      <c r="V6" s="32">
+      <c r="V6" s="31">
         <f ca="1">TODAY()</f>
-        <v>44933</v>
+        <v>44934</v>
       </c>
     </row>
     <row r="7" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="10">
         <v>2</v>
       </c>
-      <c r="B7" s="29" t="s">
+      <c r="B7" s="28" t="s">
         <v>51</v>
       </c>
       <c r="C7" s="1" t="s">
@@ -2101,22 +2164,22 @@
       <c r="F7" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="G7" s="30">
+      <c r="G7" s="29">
         <v>310704</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="I7" s="30" t="b">
+      <c r="I7" s="29" t="b">
         <v>1</v>
       </c>
-      <c r="J7" s="30" t="b">
+      <c r="J7" s="29" t="b">
         <v>1</v>
       </c>
-      <c r="K7" s="30">
+      <c r="K7" s="29">
         <v>20</v>
       </c>
-      <c r="L7" s="30">
+      <c r="L7" s="29">
         <v>0.25</v>
       </c>
       <c r="M7" s="1" t="s">
@@ -2140,15 +2203,15 @@
       <c r="S7" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="T7" s="30">
+      <c r="T7" s="29">
         <v>10</v>
       </c>
-      <c r="U7" s="31">
+      <c r="U7" s="30">
         <v>1.5</v>
       </c>
-      <c r="V7" s="32">
+      <c r="V7" s="31">
         <f ca="1">TODAY()</f>
-        <v>44933</v>
+        <v>44934</v>
       </c>
     </row>
     <row r="8" spans="1:22" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
@@ -38750,16 +38813,16 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="C8:C572">
-    <cfRule type="duplicateValues" dxfId="12" priority="5" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="5" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8:D193">
-    <cfRule type="duplicateValues" dxfId="11" priority="4" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="4" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C6:C7">
-    <cfRule type="duplicateValues" dxfId="10" priority="2" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="2" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6:D7">
-    <cfRule type="duplicateValues" dxfId="9" priority="1" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="1" stopIfTrue="1"/>
   </conditionalFormatting>
   <dataValidations count="16">
     <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O573:O1662 M233:N1662 C8:E1662 C6:E7" xr:uid="{00000000-0002-0000-0100-000001000000}">
@@ -38823,10 +38886,7 @@
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.3" right="0.3" top="0.61" bottom="0.37" header="0.1" footer="0.1"/>
   <pageSetup paperSize="9" pageOrder="overThenDown" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <headerFooter alignWithMargins="0">
-    <oddHeader>&amp;P</oddHeader>
-    <oddFooter>&amp;F</oddFooter>
-  </headerFooter>
+  <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
@@ -38835,13 +38895,13 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:V688"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A60" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F81" sqref="F81"/>
+    <sheetView tabSelected="1" topLeftCell="I36" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R77" sqref="R76:R77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.85546875" style="26" customWidth="1"/>
+    <col min="1" max="1" width="12.85546875" style="25" customWidth="1"/>
     <col min="2" max="2" width="12" customWidth="1"/>
     <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>
@@ -38865,435 +38925,435 @@
     <col min="22" max="22" width="23.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="35" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
+    <row r="1" spans="1:22" s="34" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="32" t="s">
         <v>138</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="34" t="s">
+      <c r="C1" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="D1" s="34" t="s">
+      <c r="D1" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="E1" s="34" t="s">
+      <c r="E1" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="F1" s="34" t="s">
+      <c r="F1" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="G1" s="34" t="s">
+      <c r="G1" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="H1" s="34" t="s">
+      <c r="H1" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="I1" s="34" t="s">
+      <c r="I1" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="J1" s="34" t="s">
+      <c r="J1" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="K1" s="34" t="s">
+      <c r="K1" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="L1" s="34" t="s">
+      <c r="L1" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="M1" s="34" t="s">
+      <c r="M1" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="N1" s="34" t="s">
+      <c r="N1" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="O1" s="34" t="s">
+      <c r="O1" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="P1" s="34" t="s">
+      <c r="P1" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="Q1" s="34" t="s">
+      <c r="Q1" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="R1" s="34" t="s">
+      <c r="R1" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="S1" s="34" t="s">
+      <c r="S1" s="33" t="s">
         <v>140</v>
       </c>
-      <c r="T1" s="34" t="s">
+      <c r="T1" s="33" t="s">
         <v>220</v>
       </c>
-      <c r="U1" s="34" t="s">
+      <c r="U1" s="33" t="s">
         <v>221</v>
       </c>
-      <c r="V1" s="34" t="s">
+      <c r="V1" s="33" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="2" spans="1:22" s="17" customFormat="1" ht="89.25" x14ac:dyDescent="0.2">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="26" t="s">
         <v>98</v>
       </c>
-      <c r="B2" s="28" t="str">
+      <c r="B2" s="27" t="str">
         <f>VLOOKUP(B$1,SheetRulesAndMetaData!$B$29:$F$60,2,FALSE)</f>
         <v>Must exactly match a sample_id from the Bar sheet</v>
       </c>
-      <c r="C2" s="28" t="str">
+      <c r="C2" s="27" t="str">
         <f>VLOOKUP(C$1,SheetRulesAndMetaData!$B$29:$F$60,2,FALSE)</f>
         <v>Measurement Configuration</v>
       </c>
-      <c r="D2" s="28" t="str">
+      <c r="D2" s="27" t="str">
         <f>VLOOKUP(D$1,SheetRulesAndMetaData!$B$29:$F$60,2,FALSE)</f>
         <v>Type of measurement</v>
       </c>
-      <c r="E2" s="28" t="str">
+      <c r="E2" s="27" t="str">
         <f>VLOOKUP(E$1,SheetRulesAndMetaData!$B$29:$F$60,2,FALSE)</f>
         <v>Determines which order scans will be run, lowest value first.</v>
       </c>
-      <c r="F2" s="28" t="str">
+      <c r="F2" s="27" t="str">
         <f>VLOOKUP(F$1,SheetRulesAndMetaData!$B$29:$F$60,2,FALSE)</f>
         <v>Which elemental edge or energy ranges you wish to scan.</v>
       </c>
-      <c r="G2" s="28" t="str">
+      <c r="G2" s="27" t="str">
         <f>VLOOKUP(G$1,SheetRulesAndMetaData!$B$29:$F$60,2,FALSE)</f>
         <v>the ratio of resolution / speed between the different regions defined by the "edge" parameter</v>
       </c>
-      <c r="H2" s="28" t="str">
+      <c r="H2" s="27" t="str">
         <f>VLOOKUP(H$1,SheetRulesAndMetaData!$B$29:$F$60,2,FALSE)</f>
         <v>How many steps you want per energy scan</v>
       </c>
-      <c r="I2" s="28" t="str">
+      <c r="I2" s="27" t="str">
         <f>VLOOKUP(I$1,SheetRulesAndMetaData!$B$29:$F$60,2,FALSE)</f>
         <v xml:space="preserve">How many images you want per step.  </v>
       </c>
-      <c r="J2" s="28" t="str">
+      <c r="J2" s="27" t="str">
         <f>VLOOKUP(J$1,SheetRulesAndMetaData!$B$29:$F$60,2,FALSE)</f>
         <v>eV/sec to scan NEXAFS.</v>
       </c>
-      <c r="K2" s="28" t="str">
+      <c r="K2" s="27" t="str">
         <f>VLOOKUP(K$1,SheetRulesAndMetaData!$B$29:$F$60,2,FALSE)</f>
         <v>how many times to sweep energy up and back down</v>
       </c>
-      <c r="L2" s="28" t="str">
+      <c r="L2" s="27" t="str">
         <f>VLOOKUP(L$1,SheetRulesAndMetaData!$B$29:$F$60,2,FALSE)</f>
         <v>diameter in mm of spiral scan extent</v>
       </c>
-      <c r="M2" s="28" t="str">
+      <c r="M2" s="27" t="str">
         <f>VLOOKUP(M$1,SheetRulesAndMetaData!$B$29:$F$60,2,FALSE)</f>
         <v>step size for a spiral scan</v>
       </c>
-      <c r="N2" s="28" t="str">
+      <c r="N2" s="27" t="str">
         <f>VLOOKUP(N$1,SheetRulesAndMetaData!$B$29:$F$60,2,FALSE)</f>
         <v>when specifying a polarization for a NEXAFS scan, wether the specification is relative to the sample surface or relative to the lab</v>
       </c>
-      <c r="O2" s="28" t="str">
+      <c r="O2" s="27" t="str">
         <f>VLOOKUP(O$1,SheetRulesAndMetaData!$B$29:$F$60,2,FALSE)</f>
         <v>single angle or list of polarization angles to take measurement at</v>
       </c>
-      <c r="P2" s="28" t="str">
+      <c r="P2" s="27" t="str">
         <f>VLOOKUP(P$1,SheetRulesAndMetaData!$B$29:$F$60,2,FALSE)</f>
         <v>angles for rotation of the sample about the vertical axis</v>
       </c>
-      <c r="Q2" s="28" t="str">
+      <c r="Q2" s="27" t="str">
         <f>VLOOKUP(Q$1,SheetRulesAndMetaData!$B$29:$F$60,2,FALSE)</f>
         <v>exposure time(s) in seconds for rsoxs scans and spirals</v>
       </c>
-      <c r="R2" s="28" t="str">
+      <c r="R2" s="27" t="str">
         <f>VLOOKUP(R$1,SheetRulesAndMetaData!$B$29:$F$60,2,FALSE)</f>
         <v xml:space="preserve">which grating to use for measurements </v>
       </c>
-      <c r="S2" s="28" t="str">
+      <c r="S2" s="27" t="str">
         <f>VLOOKUP(S$1,SheetRulesAndMetaData!$B$29:$F$60,2,FALSE)</f>
         <v>high or low range for diode measurements</v>
       </c>
-      <c r="T2" s="28" t="str">
+      <c r="T2" s="27" t="str">
         <f>VLOOKUP(T$1,SheetRulesAndMetaData!$B$29:$F$60,2,FALSE)</f>
         <v>a filter when "run_bar" is used, to only run certain acquisitions, and ignore others</v>
       </c>
-      <c r="U2" s="28" t="str">
+      <c r="U2" s="27" t="str">
         <f>VLOOKUP(U$1,SheetRulesAndMetaData!$B$29:$F$60,2,FALSE)</f>
         <v>a message to send to the RSoXS slack channel when this acquisition starts</v>
       </c>
-      <c r="V2" s="28" t="str">
+      <c r="V2" s="27" t="str">
         <f>VLOOKUP(V$1,SheetRulesAndMetaData!$B$29:$F$60,2,FALSE)</f>
         <v>a message to send to the RSoXS slack channel when this acquisition is finished</v>
       </c>
     </row>
     <row r="3" spans="1:22" s="17" customFormat="1" ht="127.5" x14ac:dyDescent="0.2">
-      <c r="A3" s="27" t="s">
+      <c r="A3" s="26" t="s">
         <v>99</v>
       </c>
-      <c r="B3" s="28" t="str">
+      <c r="B3" s="27" t="str">
         <f>VLOOKUP(B$1,SheetRulesAndMetaData!$B$29:$F$60,3,FALSE)</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="C3" s="28" t="str">
+      <c r="C3" s="27" t="str">
         <f>VLOOKUP(C$1,SheetRulesAndMetaData!$B$29:$F$60,3,FALSE)</f>
         <v>Choose from WAXSNEXAFS, WAXS, SAXS, SAXSNEXAFS, SAXS_liquid, WAXS_liquid</v>
       </c>
-      <c r="D3" s="28" t="str">
+      <c r="D3" s="27" t="str">
         <f>VLOOKUP(D$1,SheetRulesAndMetaData!$B$29:$F$60,3,FALSE)</f>
         <v>Choose from RSoXS, NEXAFS, Spiral</v>
       </c>
-      <c r="E3" s="28" t="str">
+      <c r="E3" s="27" t="str">
         <f>VLOOKUP(E$1,SheetRulesAndMetaData!$B$29:$F$60,3,FALSE)</f>
         <v>Must be an integer from 1 to 100</v>
       </c>
-      <c r="F3" s="28" t="str">
+      <c r="F3" s="27" t="str">
         <f>VLOOKUP(F$1,SheetRulesAndMetaData!$B$29:$F$60,3,FALSE)</f>
         <v>Must match an entry in the lookup table (see Notes), OR be a single energy OR be a list of energies within hard brackets</v>
       </c>
-      <c r="G3" s="28" t="str">
+      <c r="G3" s="27" t="str">
         <f>VLOOKUP(G$1,SheetRulesAndMetaData!$B$29:$F$60,3,FALSE)</f>
         <v>must match the number of regions defined by ratios. (length of ratios -1)  for built in ratio tables, look up the length needed</v>
       </c>
-      <c r="H3" s="28" t="str">
+      <c r="H3" s="27" t="str">
         <f>VLOOKUP(H$1,SheetRulesAndMetaData!$B$29:$F$60,3,FALSE)</f>
         <v>this is only a estimate, the threshold energies will always be favored.  See the examples in the jupyter notebook, and run dry runs there to see actual numbers of exposures and experimental times</v>
       </c>
-      <c r="I3" s="28" t="str">
+      <c r="I3" s="27" t="str">
         <f>VLOOKUP(I$1,SheetRulesAndMetaData!$B$29:$F$60,3,FALSE)</f>
         <v>Repeating exposures at a single step has much less overhead ~1 second than defining multiple steps at one energy ~4 seconds</v>
       </c>
-      <c r="J3" s="28" t="str">
+      <c r="J3" s="27" t="str">
         <f>VLOOKUP(J$1,SheetRulesAndMetaData!$B$29:$F$60,3,FALSE)</f>
         <v>built in speeds are good starting points. 0.1 is slow (5 minutes or so for a scan)  0.3 is fast (&lt;2 minutes / scan)</v>
       </c>
-      <c r="K3" s="28" t="str">
+      <c r="K3" s="27" t="str">
         <f>VLOOKUP(K$1,SheetRulesAndMetaData!$B$29:$F$60,3,FALSE)</f>
         <v>any non negative integer</v>
       </c>
-      <c r="L3" s="28" t="str">
+      <c r="L3" s="27" t="str">
         <f>VLOOKUP(L$1,SheetRulesAndMetaData!$B$29:$F$60,3,FALSE)</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="M3" s="28" t="str">
+      <c r="M3" s="27" t="str">
         <f>VLOOKUP(M$1,SheetRulesAndMetaData!$B$29:$F$60,3,FALSE)</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="N3" s="28" t="str">
+      <c r="N3" s="27" t="str">
         <f>VLOOKUP(N$1,SheetRulesAndMetaData!$B$29:$F$60,3,FALSE)</f>
         <v>in lab frame 0 is horizontal in board, 90 vertical up
 in sample frame, 0 is normal to the sample surface (minimum possible is the grazing angle of the sample), 90 is in the plane of the sample</v>
       </c>
-      <c r="O3" s="28" t="str">
+      <c r="O3" s="27" t="str">
         <f>VLOOKUP(O$1,SheetRulesAndMetaData!$B$29:$F$60,3,FALSE)</f>
         <v>-1 -&gt; circular
 -0.5 -&gt; circular counter clockwise
 0-180 -&gt; angle from horizontal (sample frame: out of plane) through vertical (sample frame: in plane)</v>
       </c>
-      <c r="P3" s="28" t="str">
+      <c r="P3" s="27" t="str">
         <f>VLOOKUP(P$1,SheetRulesAndMetaData!$B$29:$F$60,3,FALSE)</f>
         <v>number or list of numbers to take scans</v>
       </c>
-      <c r="Q3" s="28" t="str">
+      <c r="Q3" s="27" t="str">
         <f>VLOOKUP(Q$1,SheetRulesAndMetaData!$B$29:$F$60,3,FALSE)</f>
         <v>for rsoxs scans, a more complex nomenclature is available to define exposures for certain energy ranges. See the notebook example or the wiki</v>
       </c>
-      <c r="R3" s="28" t="str">
+      <c r="R3" s="27" t="str">
         <f>VLOOKUP(R$1,SheetRulesAndMetaData!$B$29:$F$60,3,FALSE)</f>
         <v>rsoxs (default), 1200, 250</v>
       </c>
-      <c r="S3" s="28" t="str">
+      <c r="S3" s="27" t="str">
         <f>VLOOKUP(S$1,SheetRulesAndMetaData!$B$29:$F$60,3,FALSE)</f>
         <v>high, low</v>
       </c>
-      <c r="T3" s="28" t="str">
+      <c r="T3" s="27" t="str">
         <f>VLOOKUP(T$1,SheetRulesAndMetaData!$B$29:$F$60,3,FALSE)</f>
         <v>string or number.  "all" or not specifying will mean this acquisition will run with any grouping.  Not specifying a group= in run_bar command will run all samples no matter their group</v>
       </c>
-      <c r="U3" s="28" t="str">
+      <c r="U3" s="27" t="str">
         <f>VLOOKUP(U$1,SheetRulesAndMetaData!$B$29:$F$60,3,FALSE)</f>
         <v xml:space="preserve">any string.  </v>
       </c>
-      <c r="V3" s="28" t="str">
+      <c r="V3" s="27" t="str">
         <f>VLOOKUP(V$1,SheetRulesAndMetaData!$B$29:$F$60,3,FALSE)</f>
         <v xml:space="preserve">any string.  </v>
       </c>
     </row>
     <row r="4" spans="1:22" s="17" customFormat="1" ht="114.75" x14ac:dyDescent="0.2">
-      <c r="A4" s="27" t="s">
+      <c r="A4" s="26" t="s">
         <v>100</v>
       </c>
-      <c r="B4" s="28">
+      <c r="B4" s="27">
         <f>VLOOKUP(B$1,SheetRulesAndMetaData!$B$29:$F$60,4,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="C4" s="28" t="str">
+      <c r="C4" s="27" t="str">
         <f>VLOOKUP(C$1,SheetRulesAndMetaData!$B$29:$F$60,4,FALSE)</f>
         <v>SAXS</v>
       </c>
-      <c r="D4" s="28" t="str">
+      <c r="D4" s="27" t="str">
         <f>VLOOKUP(D$1,SheetRulesAndMetaData!$B$29:$F$60,4,FALSE)</f>
         <v>Spiral</v>
       </c>
-      <c r="E4" s="28">
+      <c r="E4" s="27">
         <f>VLOOKUP(E$1,SheetRulesAndMetaData!$B$29:$F$60,4,FALSE)</f>
         <v>2</v>
       </c>
-      <c r="F4" s="28" t="str">
+      <c r="F4" s="27" t="str">
         <f>VLOOKUP(F$1,SheetRulesAndMetaData!$B$29:$F$60,4,FALSE)</f>
         <v>carbon OR 285 OR [270,280,290,400]</v>
       </c>
-      <c r="G4" s="28" t="str">
+      <c r="G4" s="27" t="str">
         <f>VLOOKUP(G$1,SheetRulesAndMetaData!$B$29:$F$60,4,FALSE)</f>
         <v xml:space="preserve">5,1,5 -&gt; go through the first and last region 5 times as fast (NEXAFS) or have the energy steps 5 times more spread out (RSoXS) than the central region </v>
       </c>
-      <c r="H4" s="28" t="str">
+      <c r="H4" s="27" t="str">
         <f>VLOOKUP(H$1,SheetRulesAndMetaData!$B$29:$F$60,4,FALSE)</f>
         <v>short</v>
       </c>
-      <c r="I4" s="28" t="str">
+      <c r="I4" s="27" t="str">
         <f>VLOOKUP(I$1,SheetRulesAndMetaData!$B$29:$F$60,4,FALSE)</f>
         <v>5 -&gt; repeat every exposure 5 times before moving to the next energy step'</v>
       </c>
-      <c r="J4" s="28" t="str">
+      <c r="J4" s="27" t="str">
         <f>VLOOKUP(J$1,SheetRulesAndMetaData!$B$29:$F$60,4,FALSE)</f>
         <v>fast</v>
       </c>
-      <c r="K4" s="28" t="str">
+      <c r="K4" s="27" t="str">
         <f>VLOOKUP(K$1,SheetRulesAndMetaData!$B$29:$F$60,4,FALSE)</f>
         <v>0 -&gt; no sweeping back down</v>
       </c>
-      <c r="L4" s="28" t="str">
+      <c r="L4" s="27" t="str">
         <f>VLOOKUP(L$1,SheetRulesAndMetaData!$B$29:$F$60,4,FALSE)</f>
         <v>1.5</v>
       </c>
-      <c r="M4" s="28" t="str">
+      <c r="M4" s="27" t="str">
         <f>VLOOKUP(M$1,SheetRulesAndMetaData!$B$29:$F$60,4,FALSE)</f>
         <v>0.3</v>
       </c>
-      <c r="N4" s="28" t="str">
+      <c r="N4" s="27" t="str">
         <f>VLOOKUP(N$1,SheetRulesAndMetaData!$B$29:$F$60,4,FALSE)</f>
         <v>20</v>
       </c>
-      <c r="O4" s="28" t="str">
+      <c r="O4" s="27" t="str">
         <f>VLOOKUP(O$1,SheetRulesAndMetaData!$B$29:$F$60,4,FALSE)</f>
         <v>20,30,55,70,90</v>
       </c>
-      <c r="P4" s="28" t="str">
+      <c r="P4" s="27" t="str">
         <f>VLOOKUP(P$1,SheetRulesAndMetaData!$B$29:$F$60,4,FALSE)</f>
         <v>20,40,55,70,90</v>
       </c>
-      <c r="Q4" s="28" t="str">
+      <c r="Q4" s="27" t="str">
         <f>VLOOKUP(Q$1,SheetRulesAndMetaData!$B$29:$F$60,4,FALSE)</f>
         <v>1</v>
       </c>
-      <c r="R4" s="28" t="str">
+      <c r="R4" s="27" t="str">
         <f>VLOOKUP(R$1,SheetRulesAndMetaData!$B$29:$F$60,4,FALSE)</f>
         <v>rsoxs</v>
       </c>
-      <c r="S4" s="28" t="str">
+      <c r="S4" s="27" t="str">
         <f>VLOOKUP(S$1,SheetRulesAndMetaData!$B$29:$F$60,4,FALSE)</f>
         <v>high</v>
       </c>
-      <c r="T4" s="28" t="str">
+      <c r="T4" s="27" t="str">
         <f>VLOOKUP(T$1,SheetRulesAndMetaData!$B$29:$F$60,4,FALSE)</f>
         <v>"spirals"</v>
       </c>
-      <c r="U4" s="28" t="str">
+      <c r="U4" s="27" t="str">
         <f>VLOOKUP(U$1,SheetRulesAndMetaData!$B$29:$F$60,4,FALSE)</f>
         <v>Hey Eliot, I'm starting this important scan now</v>
       </c>
-      <c r="V4" s="28" t="str">
+      <c r="V4" s="27" t="str">
         <f>VLOOKUP(V$1,SheetRulesAndMetaData!$B$29:$F$60,4,FALSE)</f>
         <v>Done with this really important scan, start looking at the data!</v>
       </c>
     </row>
     <row r="5" spans="1:22" s="17" customFormat="1" ht="114.75" x14ac:dyDescent="0.2">
-      <c r="A5" s="27" t="s">
+      <c r="A5" s="26" t="s">
         <v>105</v>
       </c>
-      <c r="B5" s="28">
+      <c r="B5" s="27">
         <f>VLOOKUP(B$1,SheetRulesAndMetaData!$B$29:$F$60,5,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="C5" s="28" t="str">
+      <c r="C5" s="27" t="str">
         <f>VLOOKUP(C$1,SheetRulesAndMetaData!$B$29:$F$60,5,FALSE)</f>
         <v>Determines which detector is used / slits</v>
       </c>
-      <c r="D5" s="28" t="str">
+      <c r="D5" s="27" t="str">
         <f>VLOOKUP(D$1,SheetRulesAndMetaData!$B$29:$F$60,5,FALSE)</f>
         <v xml:space="preserve">Depending on the value of this cell, unnecessary acquisition parameters will be greyed out and locked. </v>
       </c>
-      <c r="E5" s="28" t="str">
+      <c r="E5" s="27" t="str">
         <f>VLOOKUP(E$1,SheetRulesAndMetaData!$B$29:$F$60,5,FALSE)</f>
         <v>Normal way to sort queue steps</v>
       </c>
-      <c r="F5" s="28" t="str">
+      <c r="F5" s="27" t="str">
         <f>VLOOKUP(F$1,SheetRulesAndMetaData!$B$29:$F$60,5,FALSE)</f>
         <v>Current Lookup table entries are given here [LINK]</v>
       </c>
-      <c r="G5" s="28" t="str">
+      <c r="G5" s="27" t="str">
         <f>VLOOKUP(G$1,SheetRulesAndMetaData!$B$29:$F$60,5,FALSE)</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="H5" s="28" t="str">
+      <c r="H5" s="27" t="str">
         <f>VLOOKUP(H$1,SheetRulesAndMetaData!$B$29:$F$60,5,FALSE)</f>
         <v>default 'full' which is 112 images</v>
       </c>
-      <c r="I5" s="28" t="str">
+      <c r="I5" s="27" t="str">
         <f>VLOOKUP(I$1,SheetRulesAndMetaData!$B$29:$F$60,5,FALSE)</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="J5" s="28" t="str">
+      <c r="J5" s="27" t="str">
         <f>VLOOKUP(J$1,SheetRulesAndMetaData!$B$29:$F$60,5,FALSE)</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="K5" s="28" t="str">
+      <c r="K5" s="27" t="str">
         <f>VLOOKUP(K$1,SheetRulesAndMetaData!$B$29:$F$60,5,FALSE)</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="L5" s="28" t="str">
+      <c r="L5" s="27" t="str">
         <f>VLOOKUP(L$1,SheetRulesAndMetaData!$B$29:$F$60,5,FALSE)</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="M5" s="28" t="str">
+      <c r="M5" s="27" t="str">
         <f>VLOOKUP(M$1,SheetRulesAndMetaData!$B$29:$F$60,5,FALSE)</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="N5" s="28" t="str">
+      <c r="N5" s="27" t="str">
         <f>VLOOKUP(N$1,SheetRulesAndMetaData!$B$29:$F$60,5,FALSE)</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="O5" s="28" t="str">
+      <c r="O5" s="27" t="str">
         <f>VLOOKUP(O$1,SheetRulesAndMetaData!$B$29:$F$60,5,FALSE)</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="P5" s="28" t="str">
+      <c r="P5" s="27" t="str">
         <f>VLOOKUP(P$1,SheetRulesAndMetaData!$B$29:$F$60,5,FALSE)</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="Q5" s="28" t="str">
+      <c r="Q5" s="27" t="str">
         <f>VLOOKUP(Q$1,SheetRulesAndMetaData!$B$29:$F$60,5,FALSE)</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="R5" s="28" t="str">
+      <c r="R5" s="27" t="str">
         <f>VLOOKUP(R$1,SheetRulesAndMetaData!$B$29:$F$60,5,FALSE)</f>
         <v>WARNING - moving gratings between measurements might result in loss of energy calibration</v>
       </c>
-      <c r="S5" s="28" t="str">
+      <c r="S5" s="27" t="str">
         <f>VLOOKUP(S$1,SheetRulesAndMetaData!$B$29:$F$60,5,FALSE)</f>
         <v>high should be used in any case where saturation might be a possibility - the majority of measurements</v>
       </c>
-      <c r="T5" s="28" t="str">
+      <c r="T5" s="27" t="str">
         <f>VLOOKUP(T$1,SheetRulesAndMetaData!$B$29:$F$60,5,FALSE)</f>
         <v>use to separate alignment scans which must all be run and analyzed before running data, or running ONLY some sub set of data.  This isn't sorting like priority, it's filtering</v>
       </c>
-      <c r="U5" s="28" t="str">
+      <c r="U5" s="27" t="str">
         <f>VLOOKUP(U$1,SheetRulesAndMetaData!$B$29:$F$60,5,FALSE)</f>
         <v xml:space="preserve"> Add tagging to get notifications by finding your member ID from the slack profile page and adding it like &lt;@memberid&gt;</v>
       </c>
-      <c r="V5" s="28">
+      <c r="V5" s="27">
         <f>VLOOKUP(V$1,SheetRulesAndMetaData!$B$29:$F$60,5,FALSE)</f>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A6" s="26">
+      <c r="A6" s="25">
         <v>0</v>
       </c>
       <c r="B6" s="3" t="s">
@@ -39314,7 +39374,7 @@
       <c r="P6" s="4"/>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A7" s="26">
+      <c r="A7" s="25">
         <v>1</v>
       </c>
       <c r="B7" s="3" t="s">
@@ -39336,7 +39396,7 @@
       <c r="P7" s="4"/>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A8" s="26">
+      <c r="A8" s="25">
         <v>2</v>
       </c>
       <c r="B8" s="3" t="s">
@@ -39363,7 +39423,7 @@
       <c r="P8" s="4"/>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A9" s="26">
+      <c r="A9" s="25">
         <v>3</v>
       </c>
       <c r="B9" s="3" t="s">
@@ -39384,7 +39444,7 @@
       <c r="P9" s="4"/>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A10" s="26">
+      <c r="A10" s="25">
         <v>4</v>
       </c>
       <c r="B10" s="3" t="s">
@@ -39405,7 +39465,7 @@
       <c r="P10" s="4"/>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A11" s="26">
+      <c r="A11" s="25">
         <v>5</v>
       </c>
       <c r="B11" s="3" t="s">
@@ -39432,7 +39492,7 @@
       <c r="P11" s="4"/>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A12" s="26">
+      <c r="A12" s="25">
         <v>6</v>
       </c>
       <c r="B12" s="3" t="s">
@@ -39456,7 +39516,7 @@
       <c r="P12" s="4"/>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A13" s="26">
+      <c r="A13" s="25">
         <v>7</v>
       </c>
       <c r="B13" s="3" t="s">
@@ -39483,7 +39543,7 @@
       <c r="P13" s="4"/>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A14" s="26">
+      <c r="A14" s="25">
         <v>8</v>
       </c>
       <c r="B14" s="3" t="s">
@@ -39510,7 +39570,7 @@
       <c r="P14" s="4"/>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A15" s="26">
+      <c r="A15" s="25">
         <v>9</v>
       </c>
       <c r="B15" s="3" t="s">
@@ -39531,7 +39591,7 @@
       <c r="P15" s="4"/>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A16" s="26">
+      <c r="A16" s="25">
         <v>10</v>
       </c>
       <c r="B16" s="3" t="s">
@@ -39557,8 +39617,8 @@
       </c>
       <c r="P16" s="4"/>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A17" s="26">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A17" s="25">
         <v>11</v>
       </c>
       <c r="B17" s="3" t="s">
@@ -39584,8 +39644,8 @@
       </c>
       <c r="P17" s="4"/>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A18" s="26">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A18" s="25">
         <v>12</v>
       </c>
       <c r="B18" s="3" t="s">
@@ -39611,8 +39671,8 @@
       </c>
       <c r="P18" s="4"/>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A19" s="26">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A19" s="25">
         <v>13</v>
       </c>
       <c r="B19" s="3" t="s">
@@ -39638,8 +39698,8 @@
       </c>
       <c r="P19" s="4"/>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A20" s="26">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A20" s="25">
         <v>14</v>
       </c>
       <c r="B20" s="3" t="s">
@@ -39665,8 +39725,8 @@
       </c>
       <c r="P20" s="4"/>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A21" s="26">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A21" s="25">
         <v>15</v>
       </c>
       <c r="B21" s="3" t="s">
@@ -39689,8 +39749,8 @@
       </c>
       <c r="P21" s="4"/>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A22" s="26">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A22" s="25">
         <v>16</v>
       </c>
       <c r="B22" s="3" t="s">
@@ -39718,8 +39778,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A23" s="26">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A23" s="25">
         <v>17</v>
       </c>
       <c r="B23" s="3" t="s">
@@ -39745,8 +39805,8 @@
       </c>
       <c r="P23" s="4"/>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A24" s="26">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A24" s="25">
         <v>18</v>
       </c>
       <c r="B24" s="3" t="s">
@@ -39766,8 +39826,8 @@
       </c>
       <c r="P24" s="4"/>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A25" s="26">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A25" s="25">
         <v>19</v>
       </c>
       <c r="B25" s="3" t="s">
@@ -39790,8 +39850,8 @@
         <v>62</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A26" s="26">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A26" s="25">
         <v>20</v>
       </c>
       <c r="B26" s="3" t="s">
@@ -39814,8 +39874,8 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A27" s="26">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A27" s="25">
         <v>21</v>
       </c>
       <c r="B27" s="3" t="s">
@@ -39838,8 +39898,8 @@
         <v>250</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A28" s="26">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A28" s="25">
         <v>22</v>
       </c>
       <c r="B28" s="3" t="s">
@@ -39862,8 +39922,8 @@
         <v>62</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A29" s="26">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A29" s="25">
         <v>23</v>
       </c>
       <c r="B29" s="3" t="s">
@@ -39885,9 +39945,12 @@
       <c r="S29" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A30" s="26">
+      <c r="T29" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A30" s="25">
         <v>24</v>
       </c>
       <c r="B30" s="3" t="s">
@@ -39909,9 +39972,12 @@
       <c r="S30" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A31" s="26">
+      <c r="T30" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A31" s="25">
         <v>25</v>
       </c>
       <c r="B31" s="3" t="s">
@@ -39933,9 +39999,12 @@
       <c r="S31" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A32" s="26">
+      <c r="T31" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A32" s="25">
         <v>26</v>
       </c>
       <c r="B32" s="3" t="s">
@@ -39957,9 +40026,12 @@
       <c r="S32" t="s">
         <v>79</v>
       </c>
+      <c r="T32" t="s">
+        <v>242</v>
+      </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A33" s="26">
+      <c r="A33" s="25">
         <v>27</v>
       </c>
       <c r="B33" s="3" t="s">
@@ -39980,7 +40052,7 @@
       <c r="P33" s="4"/>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A34" s="26">
+      <c r="A34" s="25">
         <v>28</v>
       </c>
       <c r="B34" s="3" t="s">
@@ -40001,7 +40073,7 @@
       <c r="P34" s="4"/>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A35" s="26">
+      <c r="A35" s="25">
         <v>29</v>
       </c>
       <c r="B35" s="3" t="s">
@@ -40022,7 +40094,7 @@
       <c r="P35" s="4"/>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A36" s="26">
+      <c r="A36" s="25">
         <v>30</v>
       </c>
       <c r="B36" s="3" t="s">
@@ -40046,7 +40118,7 @@
       <c r="P36" s="4"/>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A37" s="26">
+      <c r="A37" s="25">
         <v>31</v>
       </c>
       <c r="B37" s="3" t="s">
@@ -40070,7 +40142,7 @@
       <c r="P37" s="4"/>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A38" s="26">
+      <c r="A38" s="25">
         <v>32</v>
       </c>
       <c r="B38" s="3" t="s">
@@ -40094,7 +40166,7 @@
       <c r="P38" s="4"/>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A39" s="26">
+      <c r="A39" s="25">
         <v>33</v>
       </c>
       <c r="B39" s="3" t="s">
@@ -40121,7 +40193,7 @@
       <c r="P39" s="4"/>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A40" s="26">
+      <c r="A40" s="25">
         <v>34</v>
       </c>
       <c r="B40" s="3" t="s">
@@ -40148,7 +40220,7 @@
       <c r="P40" s="4"/>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A41" s="26">
+      <c r="A41" s="25">
         <v>35</v>
       </c>
       <c r="B41" s="3" t="s">
@@ -40175,7 +40247,7 @@
       <c r="P41" s="4"/>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A42" s="26">
+      <c r="A42" s="25">
         <v>36</v>
       </c>
       <c r="B42" s="3" t="s">
@@ -40202,7 +40274,7 @@
       <c r="P42" s="4"/>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A43" s="26">
+      <c r="A43" s="25">
         <v>37</v>
       </c>
       <c r="B43" s="3" t="s">
@@ -40229,7 +40301,7 @@
       <c r="P43" s="4"/>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A44" s="26">
+      <c r="A44" s="25">
         <v>38</v>
       </c>
       <c r="B44" s="3" t="s">
@@ -40256,7 +40328,7 @@
       <c r="P44" s="4"/>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A45" s="26">
+      <c r="A45" s="25">
         <v>39</v>
       </c>
       <c r="B45" s="3" t="s">
@@ -40286,7 +40358,7 @@
       <c r="P45" s="4"/>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A46" s="26">
+      <c r="A46" s="25">
         <v>40</v>
       </c>
       <c r="B46" s="3" t="s">
@@ -40310,7 +40382,7 @@
       <c r="P46" s="4"/>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A47" s="26">
+      <c r="A47" s="25">
         <v>41</v>
       </c>
       <c r="B47" s="3" t="s">
@@ -40336,7 +40408,7 @@
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A48" s="26">
+      <c r="A48" s="25">
         <v>42</v>
       </c>
       <c r="B48" s="3" t="s">
@@ -40359,7 +40431,7 @@
       </c>
     </row>
     <row r="49" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A49" s="26">
+      <c r="A49" s="25">
         <v>43</v>
       </c>
       <c r="B49" s="3" t="s">
@@ -40379,7 +40451,7 @@
       </c>
     </row>
     <row r="50" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A50" s="26">
+      <c r="A50" s="25">
         <v>44</v>
       </c>
       <c r="B50" s="3" t="s">
@@ -40402,7 +40474,7 @@
       </c>
     </row>
     <row r="51" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A51" s="26">
+      <c r="A51" s="25">
         <v>45</v>
       </c>
       <c r="B51" s="3" t="s">
@@ -40425,7 +40497,7 @@
       </c>
     </row>
     <row r="52" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A52" s="26">
+      <c r="A52" s="25">
         <v>46</v>
       </c>
       <c r="B52" s="3" t="s">
@@ -40448,7 +40520,7 @@
       </c>
     </row>
     <row r="53" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A53" s="26">
+      <c r="A53" s="25">
         <v>47</v>
       </c>
       <c r="B53" s="3" t="s">
@@ -40471,7 +40543,7 @@
       </c>
     </row>
     <row r="54" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A54" s="26">
+      <c r="A54" s="25">
         <v>48</v>
       </c>
       <c r="B54" s="3" t="s">
@@ -40494,7 +40566,7 @@
       </c>
     </row>
     <row r="55" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A55" s="26">
+      <c r="A55" s="25">
         <v>49</v>
       </c>
       <c r="B55" s="3" t="s">
@@ -40517,7 +40589,7 @@
       </c>
     </row>
     <row r="56" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A56" s="26">
+      <c r="A56" s="25">
         <v>50</v>
       </c>
       <c r="B56" s="3" t="s">
@@ -40540,7 +40612,7 @@
       </c>
     </row>
     <row r="57" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A57" s="26">
+      <c r="A57" s="25">
         <v>51</v>
       </c>
       <c r="B57" s="3" t="s">
@@ -40560,7 +40632,7 @@
       </c>
     </row>
     <row r="58" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A58" s="26">
+      <c r="A58" s="25">
         <v>52</v>
       </c>
       <c r="B58" s="3" t="s">
@@ -40583,7 +40655,7 @@
       </c>
     </row>
     <row r="59" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A59" s="26">
+      <c r="A59" s="25">
         <v>53</v>
       </c>
       <c r="B59" s="3" t="s">
@@ -40606,7 +40678,7 @@
       </c>
     </row>
     <row r="60" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A60" s="26">
+      <c r="A60" s="25">
         <v>54</v>
       </c>
       <c r="B60" s="3" t="s">
@@ -40629,7 +40701,7 @@
       </c>
     </row>
     <row r="61" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A61" s="26">
+      <c r="A61" s="25">
         <v>55</v>
       </c>
       <c r="B61" s="3" t="s">
@@ -40649,7 +40721,7 @@
       </c>
     </row>
     <row r="62" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A62" s="26">
+      <c r="A62" s="25">
         <v>56</v>
       </c>
       <c r="B62" s="3" t="s">
@@ -40669,7 +40741,7 @@
       </c>
     </row>
     <row r="63" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A63" s="26">
+      <c r="A63" s="25">
         <v>57</v>
       </c>
       <c r="B63" s="3" t="s">
@@ -40689,7 +40761,7 @@
       </c>
     </row>
     <row r="64" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A64" s="26">
+      <c r="A64" s="25">
         <v>58</v>
       </c>
       <c r="B64" s="3" t="s">
@@ -40709,7 +40781,7 @@
       </c>
     </row>
     <row r="65" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A65" s="26">
+      <c r="A65" s="25">
         <v>59</v>
       </c>
       <c r="B65" s="3" t="s">
@@ -40729,7 +40801,7 @@
       </c>
     </row>
     <row r="66" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A66" s="26">
+      <c r="A66" s="25">
         <v>60</v>
       </c>
       <c r="B66" s="3" t="s">
@@ -40749,7 +40821,7 @@
       </c>
     </row>
     <row r="67" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A67" s="26">
+      <c r="A67" s="25">
         <v>61</v>
       </c>
       <c r="B67" s="3" t="s">
@@ -40769,7 +40841,7 @@
       </c>
     </row>
     <row r="68" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A68" s="26">
+      <c r="A68" s="25">
         <v>62</v>
       </c>
       <c r="B68" s="10" t="s">
@@ -40789,7 +40861,7 @@
       </c>
     </row>
     <row r="69" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A69" s="26">
+      <c r="A69" s="25">
         <v>63</v>
       </c>
       <c r="B69" s="10" t="s">
@@ -40809,7 +40881,7 @@
       </c>
     </row>
     <row r="70" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A70" s="26">
+      <c r="A70" s="25">
         <v>64</v>
       </c>
       <c r="B70" s="10" t="s">
@@ -40835,7 +40907,7 @@
       </c>
     </row>
     <row r="71" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A71" s="26">
+      <c r="A71" s="25">
         <v>65</v>
       </c>
       <c r="B71" s="10" t="s">
@@ -40861,7 +40933,7 @@
       </c>
     </row>
     <row r="72" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A72" s="26">
+      <c r="A72" s="25">
         <v>66</v>
       </c>
       <c r="B72" s="10" t="s">
@@ -40887,7 +40959,7 @@
       </c>
     </row>
     <row r="73" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A73" s="26">
+      <c r="A73" s="25">
         <v>67</v>
       </c>
       <c r="B73" s="10" t="s">
@@ -40916,13 +40988,103 @@
       </c>
     </row>
     <row r="74" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B74" s="3"/>
+      <c r="A74" s="25">
+        <v>68</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C74" t="s">
+        <v>61</v>
+      </c>
+      <c r="D74" t="s">
+        <v>63</v>
+      </c>
+      <c r="E74">
+        <v>27</v>
+      </c>
+      <c r="F74" t="s">
+        <v>65</v>
+      </c>
+      <c r="H74" t="s">
+        <v>243</v>
+      </c>
+      <c r="I74" t="s">
+        <v>241</v>
+      </c>
+      <c r="M74">
+        <v>3111</v>
+      </c>
+      <c r="T74" t="s">
+        <v>244</v>
+      </c>
     </row>
     <row r="75" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B75" s="3"/>
+      <c r="A75" s="25">
+        <v>69</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C75" t="s">
+        <v>61</v>
+      </c>
+      <c r="D75" t="s">
+        <v>63</v>
+      </c>
+      <c r="E75">
+        <v>27</v>
+      </c>
+      <c r="F75" t="s">
+        <v>65</v>
+      </c>
+      <c r="G75" s="10" t="s">
+        <v>245</v>
+      </c>
+      <c r="L75">
+        <v>223</v>
+      </c>
+      <c r="M75">
+        <v>11</v>
+      </c>
+      <c r="T75" t="s">
+        <v>244</v>
+      </c>
     </row>
     <row r="76" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B76" s="3"/>
+      <c r="A76" s="25">
+        <v>70</v>
+      </c>
+      <c r="B76" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C76" t="s">
+        <v>60</v>
+      </c>
+      <c r="D76" t="s">
+        <v>62</v>
+      </c>
+      <c r="E76">
+        <v>68</v>
+      </c>
+      <c r="F76" t="s">
+        <v>80</v>
+      </c>
+      <c r="G76" s="10" t="s">
+        <v>246</v>
+      </c>
+      <c r="H76" s="10" t="s">
+        <v>247</v>
+      </c>
+      <c r="I76" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="O76">
+        <v>-600</v>
+      </c>
+      <c r="T76" t="s">
+        <v>244</v>
+      </c>
     </row>
     <row r="77" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B77" s="3"/>
@@ -42762,48 +42924,78 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="J1:N1 J6:N1048576">
-    <cfRule type="expression" dxfId="8" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="14" priority="18" stopIfTrue="1">
       <formula>"rsoxs"=$D1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L1:M1 Q1 H1:I1 H6:I69 Q6:Q1048576 L6:M1048576 H74:I1048576">
-    <cfRule type="expression" dxfId="7" priority="10">
+    <cfRule type="expression" dxfId="13" priority="16">
       <formula>"nexafs"=$D1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N1 G1:K1 P1 P6:P1048576 G6:K69 N6:N1048576 G74:K1048576 J70:K73">
-    <cfRule type="expression" dxfId="6" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="12" priority="15" stopIfTrue="1">
       <formula>"spiral"=$D1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1 F6:F69 F74:F1048576">
-    <cfRule type="expression" dxfId="5" priority="6" stopIfTrue="1">
+  <conditionalFormatting sqref="F1 F6:F69 F77:F1048576">
+    <cfRule type="expression" dxfId="11" priority="12" stopIfTrue="1">
       <formula>OR($D1="rsoxs", $D1="nexafs")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C6:E69 C74:E1004">
-    <cfRule type="expression" dxfId="4" priority="5">
+  <conditionalFormatting sqref="C6:E69 C77:E1004">
+    <cfRule type="expression" dxfId="10" priority="11">
       <formula>NOT(ISBLANK($B6))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H70:I73">
-    <cfRule type="expression" dxfId="3" priority="4">
+    <cfRule type="expression" dxfId="9" priority="10">
       <formula>"nexafs"=$D70</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G70:I73">
-    <cfRule type="expression" dxfId="2" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="8" priority="9" stopIfTrue="1">
       <formula>"spiral"=$D70</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F70:F73">
-    <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="7" priority="8" stopIfTrue="1">
       <formula>OR($D70="rsoxs", $D70="nexafs")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C70:E73">
+    <cfRule type="expression" dxfId="6" priority="7">
+      <formula>NOT(ISBLANK($B70))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F74">
+    <cfRule type="expression" dxfId="5" priority="6" stopIfTrue="1">
+      <formula>OR($D74="rsoxs", $D74="nexafs")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C74:E74">
+    <cfRule type="expression" dxfId="4" priority="5">
+      <formula>NOT(ISBLANK($B74))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F75">
+    <cfRule type="expression" dxfId="3" priority="4" stopIfTrue="1">
+      <formula>OR($D75="rsoxs", $D75="nexafs")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C75:E75">
+    <cfRule type="expression" dxfId="2" priority="3">
+      <formula>NOT(ISBLANK($B75))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F76">
+    <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
+      <formula>OR($D76="rsoxs", $D76="nexafs")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C76:E76">
     <cfRule type="expression" dxfId="0" priority="1">
-      <formula>NOT(ISBLANK($B70))</formula>
+      <formula>NOT(ISBLANK($B76))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
@@ -42844,6 +43036,7 @@
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -42867,25 +43060,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="30.75" x14ac:dyDescent="0.4">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="35" t="s">
         <v>91</v>
       </c>
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="36" t="s">
         <v>92</v>
       </c>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
       <c r="F1" s="15"/>
       <c r="G1" s="14"/>
       <c r="H1" s="14"/>
     </row>
     <row r="2" spans="1:18" ht="30.75" x14ac:dyDescent="0.4">
-      <c r="A2" s="36"/>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
+      <c r="A2" s="35"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
       <c r="F2" s="15"/>
       <c r="G2" s="14"/>
       <c r="H2" s="14"/>

--- a/example/Sample_Bar_template_v2023_1.xlsx
+++ b/example/Sample_Bar_template_v2023_1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bbp\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brist\Documents\GitHub\rsoxs_scans\example\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBEA8132-9062-4C85-8E24-F13261828D83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FDF4215-BB9E-472E-ABEA-AF21DC0FDB01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27990" yWindow="-120" windowWidth="28110" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="36110" yWindow="-5130" windowWidth="30950" windowHeight="16050" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="5" r:id="rId1"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="677" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="242">
   <si>
     <t>Do not change the format of the Acquisitions or Samples tab.Other tabs can be added and edited as needed.</t>
   </si>
@@ -809,28 +809,7 @@
     <t>groupA</t>
   </si>
   <si>
-    <t>test</t>
-  </si>
-  <si>
     <t>diodeRangeTest</t>
-  </si>
-  <si>
-    <t>test2</t>
-  </si>
-  <si>
-    <t>invalidParamTest</t>
-  </si>
-  <si>
-    <t>ab</t>
-  </si>
-  <si>
-    <t>cat</t>
-  </si>
-  <si>
-    <t>rat</t>
-  </si>
-  <si>
-    <t>mat</t>
   </si>
 </sst>
 </file>
@@ -1037,49 +1016,7 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="19">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="13">
     <dxf>
       <fill>
         <patternFill>
@@ -38813,16 +38750,16 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="C8:C572">
-    <cfRule type="duplicateValues" dxfId="18" priority="5" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="5" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8:D193">
-    <cfRule type="duplicateValues" dxfId="17" priority="4" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="4" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C6:C7">
-    <cfRule type="duplicateValues" dxfId="16" priority="2" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="2" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6:D7">
-    <cfRule type="duplicateValues" dxfId="15" priority="1" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="1" stopIfTrue="1"/>
   </conditionalFormatting>
   <dataValidations count="16">
     <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O573:O1662 M233:N1662 C8:E1662 C6:E7" xr:uid="{00000000-0002-0000-0100-000001000000}">
@@ -38893,10 +38830,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{116CCDDD-7003-4820-AA86-27B44350A195}">
   <sheetPr codeName="Sheet7"/>
-  <dimension ref="A1:V688"/>
+  <dimension ref="A1:V685"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I36" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R77" sqref="R76:R77"/>
+    <sheetView tabSelected="1" topLeftCell="A53" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A74" sqref="A74:XFD74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -39946,7 +39883,7 @@
         <v>77</v>
       </c>
       <c r="T29" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.2">
@@ -39973,7 +39910,7 @@
         <v>78</v>
       </c>
       <c r="T30" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.2">
@@ -40000,7 +39937,7 @@
         <v>77</v>
       </c>
       <c r="T31" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.2">
@@ -40027,7 +39964,7 @@
         <v>79</v>
       </c>
       <c r="T32" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.2">
@@ -40988,103 +40925,13 @@
       </c>
     </row>
     <row r="74" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A74" s="25">
-        <v>68</v>
-      </c>
-      <c r="B74" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C74" t="s">
-        <v>61</v>
-      </c>
-      <c r="D74" t="s">
-        <v>63</v>
-      </c>
-      <c r="E74">
-        <v>27</v>
-      </c>
-      <c r="F74" t="s">
-        <v>65</v>
-      </c>
-      <c r="H74" t="s">
-        <v>243</v>
-      </c>
-      <c r="I74" t="s">
-        <v>241</v>
-      </c>
-      <c r="M74">
-        <v>3111</v>
-      </c>
-      <c r="T74" t="s">
-        <v>244</v>
-      </c>
+      <c r="B74" s="3"/>
     </row>
     <row r="75" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A75" s="25">
-        <v>69</v>
-      </c>
-      <c r="B75" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C75" t="s">
-        <v>61</v>
-      </c>
-      <c r="D75" t="s">
-        <v>63</v>
-      </c>
-      <c r="E75">
-        <v>27</v>
-      </c>
-      <c r="F75" t="s">
-        <v>65</v>
-      </c>
-      <c r="G75" s="10" t="s">
-        <v>245</v>
-      </c>
-      <c r="L75">
-        <v>223</v>
-      </c>
-      <c r="M75">
-        <v>11</v>
-      </c>
-      <c r="T75" t="s">
-        <v>244</v>
-      </c>
+      <c r="B75" s="3"/>
     </row>
     <row r="76" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A76" s="25">
-        <v>70</v>
-      </c>
-      <c r="B76" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="C76" t="s">
-        <v>60</v>
-      </c>
-      <c r="D76" t="s">
-        <v>62</v>
-      </c>
-      <c r="E76">
-        <v>68</v>
-      </c>
-      <c r="F76" t="s">
-        <v>80</v>
-      </c>
-      <c r="G76" s="10" t="s">
-        <v>246</v>
-      </c>
-      <c r="H76" s="10" t="s">
-        <v>247</v>
-      </c>
-      <c r="I76" s="10" t="s">
-        <v>248</v>
-      </c>
-      <c r="O76">
-        <v>-600</v>
-      </c>
-      <c r="T76" t="s">
-        <v>244</v>
-      </c>
+      <c r="B76" s="3"/>
     </row>
     <row r="77" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B77" s="3"/>
@@ -42913,89 +42760,50 @@
     <row r="685" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B685" s="3"/>
     </row>
-    <row r="686" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B686" s="3"/>
-    </row>
-    <row r="687" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B687" s="3"/>
-    </row>
-    <row r="688" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B688" s="3"/>
-    </row>
   </sheetData>
   <conditionalFormatting sqref="J1:N1 J6:N1048576">
-    <cfRule type="expression" dxfId="14" priority="18" stopIfTrue="1">
+    <cfRule type="expression" dxfId="8" priority="18" stopIfTrue="1">
       <formula>"rsoxs"=$D1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L1:M1 Q1 H1:I1 H6:I69 Q6:Q1048576 L6:M1048576 H74:I1048576">
-    <cfRule type="expression" dxfId="13" priority="16">
+    <cfRule type="expression" dxfId="7" priority="16">
       <formula>"nexafs"=$D1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N1 G1:K1 P1 P6:P1048576 G6:K69 N6:N1048576 G74:K1048576 J70:K73">
-    <cfRule type="expression" dxfId="12" priority="15" stopIfTrue="1">
+  <conditionalFormatting sqref="N1 G1:K1 P1 G6:K69 J70:K73 P6:P1048576 N6:N1048576 G74:K1048576">
+    <cfRule type="expression" dxfId="6" priority="15" stopIfTrue="1">
       <formula>"spiral"=$D1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1 F6:F69 F77:F1048576">
-    <cfRule type="expression" dxfId="11" priority="12" stopIfTrue="1">
+  <conditionalFormatting sqref="F1 F6:F69 F74:F1048576">
+    <cfRule type="expression" dxfId="5" priority="12" stopIfTrue="1">
       <formula>OR($D1="rsoxs", $D1="nexafs")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C6:E69 C77:E1004">
-    <cfRule type="expression" dxfId="10" priority="11">
+  <conditionalFormatting sqref="C6:E69 C74:E1001">
+    <cfRule type="expression" dxfId="4" priority="11">
       <formula>NOT(ISBLANK($B6))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H70:I73">
-    <cfRule type="expression" dxfId="9" priority="10">
+    <cfRule type="expression" dxfId="3" priority="10">
       <formula>"nexafs"=$D70</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G70:I73">
-    <cfRule type="expression" dxfId="8" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="2" priority="9" stopIfTrue="1">
       <formula>"spiral"=$D70</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F70:F73">
-    <cfRule type="expression" dxfId="7" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="8" stopIfTrue="1">
       <formula>OR($D70="rsoxs", $D70="nexafs")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C70:E73">
-    <cfRule type="expression" dxfId="6" priority="7">
+    <cfRule type="expression" dxfId="0" priority="7">
       <formula>NOT(ISBLANK($B70))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F74">
-    <cfRule type="expression" dxfId="5" priority="6" stopIfTrue="1">
-      <formula>OR($D74="rsoxs", $D74="nexafs")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C74:E74">
-    <cfRule type="expression" dxfId="4" priority="5">
-      <formula>NOT(ISBLANK($B74))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F75">
-    <cfRule type="expression" dxfId="3" priority="4" stopIfTrue="1">
-      <formula>OR($D75="rsoxs", $D75="nexafs")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C75:E75">
-    <cfRule type="expression" dxfId="2" priority="3">
-      <formula>NOT(ISBLANK($B75))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F76">
-    <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
-      <formula>OR($D76="rsoxs", $D76="nexafs")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C76:E76">
-    <cfRule type="expression" dxfId="0" priority="1">
-      <formula>NOT(ISBLANK($B76))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
@@ -43012,13 +42820,13 @@
           <x14:formula1>
             <xm:f>Bar!$C$4:$C$250</xm:f>
           </x14:formula1>
-          <xm:sqref>B656:B896</xm:sqref>
+          <xm:sqref>B653:B893</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{AC3EBA0B-0DD4-40E5-BE31-66F1E5977B51}">
           <x14:formula1>
             <xm:f>Bar!$C$4:$C$450</xm:f>
           </x14:formula1>
-          <xm:sqref>B6:B655</xm:sqref>
+          <xm:sqref>B6:B652</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -44447,7 +44255,7 @@
       </c>
       <c r="G49" s="16"/>
     </row>
-    <row r="50" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A50" s="22" t="s">
         <v>126</v>
       </c>

--- a/example/Sample_Bar_template_v2023_1.xlsx
+++ b/example/Sample_Bar_template_v2023_1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brist\Documents\GitHub\rsoxs_scans\example\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FDF4215-BB9E-472E-ABEA-AF21DC0FDB01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38037523-727A-47B8-91AA-DC30272F2D94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="36110" yWindow="-5130" windowWidth="30950" windowHeight="16050" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="243">
   <si>
     <t>Do not change the format of the Acquisitions or Samples tab.Other tabs can be added and edited as needed.</t>
   </si>
@@ -811,6 +811,9 @@
   <si>
     <t>diodeRangeTest</t>
   </si>
+  <si>
+    <t>asd</t>
+  </si>
 </sst>
 </file>
 
@@ -38832,8 +38835,8 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:V685"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A53" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A74" sqref="A74:XFD74"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -39828,7 +39831,7 @@
         <v>22</v>
       </c>
       <c r="F27" t="s">
-        <v>65</v>
+        <v>242</v>
       </c>
       <c r="P27" s="4"/>
       <c r="R27">

--- a/example/Sample_Bar_template_v2023_1.xlsx
+++ b/example/Sample_Bar_template_v2023_1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brist\Documents\GitHub\rsoxs_scans\example\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38037523-727A-47B8-91AA-DC30272F2D94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B82C0C9-C353-4566-9B30-AF2591A1F4C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="36110" yWindow="-5130" windowWidth="30950" windowHeight="16050" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="39220" yWindow="-4520" windowWidth="30950" windowHeight="16050" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="5" r:id="rId1"/>
@@ -812,7 +812,7 @@
     <t>diodeRangeTest</t>
   </si>
   <si>
-    <t>asd</t>
+    <t>Carbon</t>
   </si>
 </sst>
 </file>
@@ -1458,9 +1458,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:A12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -38835,8 +38833,8 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:V685"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+    <sheetView topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/example/Sample_Bar_template_v2023_1.xlsx
+++ b/example/Sample_Bar_template_v2023_1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brist\Documents\GitHub\rsoxs_scans\example\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B82C0C9-C353-4566-9B30-AF2591A1F4C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{828CE2AC-039E-41D3-B242-9110BA595953}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="39220" yWindow="-4520" windowWidth="30950" windowHeight="16050" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="39220" yWindow="-4520" windowWidth="30950" windowHeight="16050" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="5" r:id="rId1"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="242">
   <si>
     <t>Do not change the format of the Acquisitions or Samples tab.Other tabs can be added and edited as needed.</t>
   </si>
@@ -797,9 +797,6 @@
     <t>Information about possible acquisitions and arguments are given in this template and on the wiki</t>
   </si>
   <si>
-    <t>WAXSNEXAFS</t>
-  </si>
-  <si>
     <t>WAXS_liquid</t>
   </si>
   <si>
@@ -1458,7 +1455,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:A12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -38833,8 +38830,8 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:V685"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView tabSelected="1" topLeftCell="A44" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C50" sqref="C50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -39829,7 +39826,7 @@
         <v>22</v>
       </c>
       <c r="F27" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="P27" s="4"/>
       <c r="R27">
@@ -39884,7 +39881,7 @@
         <v>77</v>
       </c>
       <c r="T29" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.2">
@@ -39911,7 +39908,7 @@
         <v>78</v>
       </c>
       <c r="T30" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.2">
@@ -39938,7 +39935,7 @@
         <v>77</v>
       </c>
       <c r="T31" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.2">
@@ -39965,7 +39962,7 @@
         <v>79</v>
       </c>
       <c r="T32" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.2">
@@ -40138,7 +40135,7 @@
         <v>53</v>
       </c>
       <c r="C40" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="D40" t="s">
         <v>62</v>
@@ -40165,7 +40162,7 @@
         <v>54</v>
       </c>
       <c r="C41" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="D41" t="s">
         <v>62</v>
@@ -40303,7 +40300,7 @@
         <v>53</v>
       </c>
       <c r="C46" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="D46" t="s">
         <v>62</v>
@@ -40327,7 +40324,7 @@
         <v>54</v>
       </c>
       <c r="C47" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="D47" t="s">
         <v>62</v>
@@ -40442,7 +40439,7 @@
         <v>53</v>
       </c>
       <c r="C52" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="D52" t="s">
         <v>62</v>
@@ -40465,7 +40462,7 @@
         <v>54</v>
       </c>
       <c r="C53" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="D53" t="s">
         <v>62</v>
@@ -40577,7 +40574,7 @@
         <v>53</v>
       </c>
       <c r="C58" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="D58" t="s">
         <v>62</v>
@@ -40600,7 +40597,7 @@
         <v>54</v>
       </c>
       <c r="C59" t="s">
-        <v>70</v>
+        <v>238</v>
       </c>
       <c r="D59" t="s">
         <v>62</v>
@@ -40646,7 +40643,7 @@
         <v>54</v>
       </c>
       <c r="C61" t="s">
-        <v>61</v>
+        <v>237</v>
       </c>
       <c r="D61" t="s">
         <v>62</v>
@@ -40706,7 +40703,7 @@
         <v>53</v>
       </c>
       <c r="C64" t="s">
-        <v>70</v>
+        <v>237</v>
       </c>
       <c r="D64" t="s">
         <v>62</v>
@@ -40726,7 +40723,7 @@
         <v>54</v>
       </c>
       <c r="C65" t="s">
-        <v>70</v>
+        <v>237</v>
       </c>
       <c r="D65" t="s">
         <v>62</v>
@@ -40765,7 +40762,7 @@
       <c r="B67" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C67" s="10" t="s">
+      <c r="C67" t="s">
         <v>237</v>
       </c>
       <c r="D67" s="10" t="s">
@@ -40786,7 +40783,7 @@
         <v>54</v>
       </c>
       <c r="C68" s="10" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D68" s="10" t="s">
         <v>62</v>
@@ -40806,7 +40803,7 @@
         <v>54</v>
       </c>
       <c r="C69" s="10" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D69" s="10" t="s">
         <v>62</v>
@@ -40841,7 +40838,7 @@
         <v>81</v>
       </c>
       <c r="T70" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="71" spans="1:20" x14ac:dyDescent="0.2">
@@ -40867,7 +40864,7 @@
         <v>81</v>
       </c>
       <c r="T71" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="72" spans="1:20" x14ac:dyDescent="0.2">
@@ -40893,7 +40890,7 @@
         <v>82</v>
       </c>
       <c r="T72" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="73" spans="1:20" x14ac:dyDescent="0.2">
@@ -40922,7 +40919,7 @@
         <v>5</v>
       </c>
       <c r="T73" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="74" spans="1:20" x14ac:dyDescent="0.2">
@@ -42782,7 +42779,7 @@
       <formula>OR($D1="rsoxs", $D1="nexafs")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C6:E69 C74:E1001">
+  <conditionalFormatting sqref="C74:E1001 C6:E69">
     <cfRule type="expression" dxfId="4" priority="11">
       <formula>NOT(ISBLANK($B6))</formula>
     </cfRule>

--- a/example/Sample_Bar_template_v2023_1.xlsx
+++ b/example/Sample_Bar_template_v2023_1.xlsx
@@ -2,15 +2,10 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brist\Documents\GitHub\rsoxs_scans\example\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{828CE2AC-039E-41D3-B242-9110BA595953}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="166925"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEDDFF42-B9C6-45A6-8648-33330E09C3D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="39220" yWindow="-4520" windowWidth="30950" windowHeight="16050" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="39450" yWindow="-4290" windowWidth="30950" windowHeight="16050" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="5" r:id="rId1"/>
@@ -32,33 +27,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>tc={AF21D3A3-C285-426E-9589-5D767983D246}</author>
-    <author>tc={58AA31AC-0C15-477E-8808-CBF39EC24C66}</author>
-  </authors>
-  <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{AF21D3A3-C285-426E-9589-5D767983D246}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    The Jupyterhub tester should read cell B4 first and compare against a list of valid sheets that is updated with each new version of the spreadsheet that is released.</t>
-      </text>
-    </comment>
-    <comment ref="F17" authorId="1" shapeId="0" xr:uid="{58AA31AC-0C15-477E-8808-CBF39EC24C66}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    Clarify 0 vs 180 etc.</t>
-      </text>
-    </comment>
-  </commentList>
-</comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1139,9 +1107,7 @@
 </file>
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <person displayName="Patel, Bijal B. (Fed)" id="{279F44F1-578F-4938-9B3C-F47DAE1EE193}" userId="Patel, Bijal B. (Fed)" providerId="None"/>
-</personList>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1439,17 +1405,6 @@
 </a:theme>
 </file>
 
-<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
-<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="A1" dT="2023-01-04T20:16:19.03" personId="{279F44F1-578F-4938-9B3C-F47DAE1EE193}" id="{AF21D3A3-C285-426E-9589-5D767983D246}">
-    <text>The Jupyterhub tester should read cell B4 first and compare against a list of valid sheets that is updated with each new version of the spreadsheet that is released.</text>
-  </threadedComment>
-  <threadedComment ref="F17" dT="2023-01-04T20:35:24.66" personId="{279F44F1-578F-4938-9B3C-F47DAE1EE193}" id="{58AA31AC-0C15-477E-8808-CBF39EC24C66}">
-    <text>Clarify 0 vs 180 etc.</text>
-  </threadedComment>
-</ThreadedComments>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
@@ -42847,7 +42802,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75B514C0-9C99-41C6-BC0F-B41277EB212E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75B514C0-9C99-41C6-BC0F-B41277EB212E}">
   <dimension ref="A1:R58"/>
   <sheetViews>
     <sheetView topLeftCell="A31" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
@@ -44422,6 +44377,5 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>